--- a/SourceDataTables/FigS7f.xlsx
+++ b/SourceDataTables/FigS7f.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="1002">
   <si>
     <t>BootstrapID</t>
   </si>
@@ -3039,7 +3039,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3049,14 +3049,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3074,15 +3098,15 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3090,7 +3114,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3098,7 +3122,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3106,7 +3130,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3114,7 +3138,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3122,7 +3146,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3130,7 +3154,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3138,7 +3162,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3146,7 +3170,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3154,7 +3178,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3162,7 +3186,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3170,7 +3194,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3178,7 +3202,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3186,7 +3210,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3194,7 +3218,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3202,7 +3226,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3210,7 +3234,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3218,7 +3242,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3226,7 +3250,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3234,7 +3258,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3242,7 +3266,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3250,7 +3274,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3258,7 +3282,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3266,7 +3290,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3274,7 +3298,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3282,7 +3306,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3290,7 +3314,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3298,7 +3322,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3306,7 +3330,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3314,7 +3338,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3322,7 +3346,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -3330,7 +3354,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -3338,7 +3362,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -3346,7 +3370,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -3354,7 +3378,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -3362,7 +3386,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -3370,7 +3394,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -3378,7 +3402,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3386,7 +3410,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -3394,7 +3418,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -3402,7 +3426,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -3410,7 +3434,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3418,7 +3442,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3426,7 +3450,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -3434,7 +3458,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -3442,7 +3466,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -3450,7 +3474,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -3458,7 +3482,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -3466,7 +3490,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -3474,7 +3498,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -3482,7 +3506,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -3490,7 +3514,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -3498,7 +3522,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -3506,7 +3530,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -3514,7 +3538,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -3522,7 +3546,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -3530,7 +3554,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -3538,7 +3562,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -3546,7 +3570,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -3554,7 +3578,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -3562,7 +3586,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -3570,7 +3594,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -3578,7 +3602,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -3586,7 +3610,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -3594,7 +3618,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3602,7 +3626,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -3610,7 +3634,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -3618,7 +3642,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -3626,7 +3650,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -3634,7 +3658,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -3642,7 +3666,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -3650,7 +3674,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -3658,7 +3682,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -3666,7 +3690,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -3674,7 +3698,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -3682,7 +3706,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -3690,7 +3714,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -3698,7 +3722,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -3706,7 +3730,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -3714,7 +3738,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -3722,7 +3746,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -3730,7 +3754,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -3738,7 +3762,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -3746,7 +3770,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -3754,7 +3778,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -3762,7 +3786,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -3770,7 +3794,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -3778,7 +3802,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -3786,7 +3810,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -3794,7 +3818,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -3802,7 +3826,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -3810,7 +3834,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -3818,7 +3842,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -3826,7 +3850,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -3834,7 +3858,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -3842,7 +3866,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -3850,7 +3874,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -3858,7 +3882,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3866,7 +3890,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3874,7 +3898,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3882,7 +3906,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3890,7 +3914,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3898,7 +3922,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3906,7 +3930,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3914,7 +3938,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3922,7 +3946,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3930,7 +3954,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3938,7 +3962,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3946,7 +3970,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3954,7 +3978,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3962,7 +3986,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3970,7 +3994,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -3978,7 +4002,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -3986,7 +4010,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -3994,7 +4018,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -4002,7 +4026,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -4010,7 +4034,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -4018,7 +4042,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -4026,7 +4050,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -4034,7 +4058,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -4042,7 +4066,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -4050,7 +4074,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -4058,7 +4082,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -4066,7 +4090,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -4074,7 +4098,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -4082,7 +4106,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -4090,7 +4114,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -4098,7 +4122,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -4106,7 +4130,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -4114,7 +4138,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -4122,7 +4146,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -4130,7 +4154,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -4138,7 +4162,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -4146,7 +4170,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -4154,7 +4178,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -4162,7 +4186,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -4170,7 +4194,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -4178,7 +4202,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -4186,7 +4210,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -4194,7 +4218,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -4202,7 +4226,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -4210,7 +4234,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -4218,7 +4242,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -4226,7 +4250,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -4234,7 +4258,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -4242,7 +4266,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -4250,7 +4274,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -4258,7 +4282,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -4266,7 +4290,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -4274,7 +4298,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -4282,7 +4306,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -4290,7 +4314,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -4298,7 +4322,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -4306,7 +4330,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -4314,7 +4338,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -4322,7 +4346,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -4330,7 +4354,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -4338,7 +4362,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -4346,7 +4370,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -4354,7 +4378,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -4362,7 +4386,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -4370,7 +4394,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -4378,7 +4402,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -4386,7 +4410,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -4394,7 +4418,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -4402,7 +4426,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -4410,7 +4434,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -4418,7 +4442,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -4426,7 +4450,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -4434,7 +4458,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -4442,7 +4466,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -4450,7 +4474,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -4458,7 +4482,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -4466,7 +4490,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -4474,7 +4498,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -4482,7 +4506,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -4490,7 +4514,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -4498,7 +4522,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="13" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -4506,7 +4530,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -4514,7 +4538,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="13" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -4522,7 +4546,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -4530,7 +4554,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="13" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -4538,7 +4562,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -4546,7 +4570,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -4554,7 +4578,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -4562,7 +4586,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="13" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -4570,7 +4594,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="13" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -4578,7 +4602,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="13" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -4586,7 +4610,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="13" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -4594,7 +4618,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -4602,7 +4626,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -4610,7 +4634,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="13" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -4618,7 +4642,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -4626,7 +4650,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="13" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -4634,7 +4658,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -4642,7 +4666,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -4650,7 +4674,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -4658,7 +4682,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -4666,7 +4690,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -4674,7 +4698,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -4682,7 +4706,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -4690,7 +4714,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -4698,7 +4722,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -4706,7 +4730,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -4714,7 +4738,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -4722,7 +4746,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -4730,7 +4754,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -4738,7 +4762,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -4746,7 +4770,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -4754,7 +4778,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -4762,7 +4786,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -4770,7 +4794,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -4778,7 +4802,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -4786,7 +4810,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="13" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -4794,7 +4818,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -4802,7 +4826,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -4810,7 +4834,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -4818,7 +4842,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="13" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -4826,7 +4850,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -4834,7 +4858,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="13" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -4842,7 +4866,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="13" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -4850,7 +4874,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="13" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -4858,7 +4882,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="13" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -4866,7 +4890,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="13" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -4874,7 +4898,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -4882,7 +4906,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="13" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -4890,7 +4914,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -4898,7 +4922,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="13" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -4906,7 +4930,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -4914,7 +4938,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="13" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -4922,7 +4946,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -4930,7 +4954,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -4938,7 +4962,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -4946,7 +4970,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="13" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -4954,7 +4978,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -4962,7 +4986,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="13" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -4970,7 +4994,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -4978,7 +5002,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -4986,7 +5010,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -4994,7 +5018,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -5002,7 +5026,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -5010,7 +5034,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -5018,7 +5042,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -5026,7 +5050,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -5034,7 +5058,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -5042,7 +5066,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -5050,7 +5074,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -5058,7 +5082,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -5066,7 +5090,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -5074,7 +5098,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="13" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -5082,7 +5106,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="13" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -5090,7 +5114,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="13" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -5098,7 +5122,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -5106,7 +5130,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -5114,7 +5138,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -5122,7 +5146,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="13" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -5130,7 +5154,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -5138,7 +5162,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="13" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -5146,7 +5170,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="13" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -5154,7 +5178,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="13" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -5162,7 +5186,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="13" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -5170,7 +5194,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="13" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -5178,7 +5202,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="13" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -5186,7 +5210,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="13" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -5194,7 +5218,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="13" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -5202,7 +5226,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="13" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -5210,7 +5234,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="13" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -5218,7 +5242,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="13" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -5226,7 +5250,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="13" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -5234,7 +5258,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="13" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -5242,7 +5266,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="13" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -5250,7 +5274,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -5258,7 +5282,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -5266,7 +5290,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="13" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -5274,7 +5298,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="13" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -5282,7 +5306,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="13" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -5290,7 +5314,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="13" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -5298,7 +5322,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -5306,7 +5330,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -5314,7 +5338,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -5322,7 +5346,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -5330,7 +5354,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="13" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -5338,7 +5362,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -5346,7 +5370,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="13" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -5354,7 +5378,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="13" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -5362,7 +5386,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="13" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -5370,7 +5394,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -5378,7 +5402,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -5386,7 +5410,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -5394,7 +5418,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -5402,7 +5426,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -5410,7 +5434,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="13" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -5418,7 +5442,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="13" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -5426,7 +5450,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="13" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -5434,7 +5458,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="13" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -5442,7 +5466,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -5450,7 +5474,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -5458,7 +5482,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -5466,7 +5490,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -5474,7 +5498,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="13" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -5482,7 +5506,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -5490,7 +5514,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="13" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -5498,7 +5522,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -5506,7 +5530,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -5514,7 +5538,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="13" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -5522,7 +5546,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="13" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -5530,7 +5554,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="13" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -5538,7 +5562,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="13" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -5546,7 +5570,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="13" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -5554,7 +5578,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="13" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -5562,7 +5586,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="13" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -5570,7 +5594,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="13" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -5578,7 +5602,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="13" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -5586,7 +5610,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="13" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -5594,7 +5618,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="13" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -5602,7 +5626,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="13" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -5610,7 +5634,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="13" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -5618,7 +5642,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -5626,7 +5650,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -5634,7 +5658,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="13" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -5642,7 +5666,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="13" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -5650,7 +5674,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="13" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -5658,7 +5682,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="13" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -5666,7 +5690,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="13" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -5674,7 +5698,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="13" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -5682,7 +5706,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="13" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -5690,7 +5714,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="13" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -5698,7 +5722,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="13" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -5706,7 +5730,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="13" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -5714,7 +5738,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="13" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -5722,7 +5746,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="13" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -5730,7 +5754,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="13" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -5738,7 +5762,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="13" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -5746,7 +5770,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="13" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -5754,7 +5778,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="13" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -5762,7 +5786,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="13" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -5770,7 +5794,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="13" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -5778,7 +5802,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="13" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -5786,7 +5810,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="13" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -5794,7 +5818,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="13" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -5802,7 +5826,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="13" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -5810,7 +5834,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="13" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -5818,7 +5842,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="13" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -5826,7 +5850,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="13" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -5834,7 +5858,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="13" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -5842,7 +5866,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="13" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -5850,7 +5874,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="13" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -5858,7 +5882,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="13" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -5866,7 +5890,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="13" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -5874,7 +5898,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="13" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -5882,7 +5906,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -5890,7 +5914,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -5898,7 +5922,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="13" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -5906,7 +5930,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="13" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -5914,7 +5938,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="13" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -5922,7 +5946,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="13" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -5930,7 +5954,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="13" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -5938,7 +5962,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="13" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -5946,7 +5970,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="13" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -5954,7 +5978,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="13" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -5962,7 +5986,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="13" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -5970,7 +5994,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="13" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -5978,7 +6002,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -5986,7 +6010,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="13" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -5994,7 +6018,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="13" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -6002,7 +6026,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="13" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -6010,7 +6034,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="13" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -6018,7 +6042,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="13" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -6026,7 +6050,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="13" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -6034,7 +6058,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="13" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -6042,7 +6066,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="13" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -6050,7 +6074,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="13" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -6058,7 +6082,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="13" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -6066,7 +6090,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="13" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -6074,7 +6098,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="13" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -6082,7 +6106,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="13" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -6090,7 +6114,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="13" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -6098,7 +6122,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="13" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -6106,7 +6130,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="13" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -6114,7 +6138,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="13" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -6122,7 +6146,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="13" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -6130,7 +6154,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="13" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -6138,7 +6162,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="13" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -6146,7 +6170,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="13" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -6154,7 +6178,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -6162,7 +6186,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="13" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -6170,7 +6194,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="13" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -6178,7 +6202,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="13" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -6186,7 +6210,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="13" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -6194,7 +6218,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="13" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -6202,7 +6226,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="13" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -6210,7 +6234,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="13" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -6218,7 +6242,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="13" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -6226,7 +6250,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="13" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -6234,7 +6258,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -6242,7 +6266,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -6250,7 +6274,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -6258,7 +6282,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="13" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -6266,7 +6290,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -6274,7 +6298,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -6282,7 +6306,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="13" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -6290,7 +6314,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="13" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -6298,7 +6322,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="13" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -6306,7 +6330,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="13" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -6314,7 +6338,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="13" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -6322,7 +6346,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="13" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -6330,7 +6354,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -6338,7 +6362,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="13" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -6346,7 +6370,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="13" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -6354,7 +6378,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="13" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -6362,7 +6386,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -6370,7 +6394,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="13" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -6378,7 +6402,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="13" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -6386,7 +6410,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="13" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -6394,7 +6418,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="13" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -6402,7 +6426,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="13" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -6410,7 +6434,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="13" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -6418,7 +6442,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="13" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -6426,7 +6450,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="13" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -6434,7 +6458,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="13" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -6442,7 +6466,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -6450,7 +6474,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="13" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -6458,7 +6482,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="13" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -6466,7 +6490,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -6474,7 +6498,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -6482,7 +6506,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="13" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -6490,7 +6514,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -6498,7 +6522,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -6506,7 +6530,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="13" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -6514,7 +6538,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="13" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -6522,7 +6546,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="13" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -6530,7 +6554,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -6538,7 +6562,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="13" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -6546,7 +6570,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="13" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -6554,7 +6578,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="13" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -6562,7 +6586,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -6570,7 +6594,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="13" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -6578,7 +6602,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="13" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -6586,7 +6610,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="13" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -6594,7 +6618,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="13" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -6602,7 +6626,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="13" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -6610,7 +6634,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="13" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -6618,7 +6642,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -6626,7 +6650,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="13" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -6634,7 +6658,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="13" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -6642,7 +6666,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="13" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -6650,7 +6674,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="13" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -6658,7 +6682,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="13" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -6666,7 +6690,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="13" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -6674,7 +6698,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="13" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -6682,7 +6706,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="13" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -6690,7 +6714,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="13" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -6698,7 +6722,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -6706,7 +6730,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="13" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -6714,7 +6738,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="13" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -6722,7 +6746,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -6730,7 +6754,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="13" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -6738,7 +6762,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="13" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -6746,7 +6770,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="13" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -6754,7 +6778,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="13" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -6762,7 +6786,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="13" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -6770,7 +6794,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="13" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -6778,7 +6802,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="13" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -6786,7 +6810,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="13" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -6794,7 +6818,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="13" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -6802,7 +6826,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="13" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -6810,7 +6834,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="13" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -6818,7 +6842,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="13" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -6826,7 +6850,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="13" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -6834,7 +6858,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -6842,7 +6866,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="13" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -6850,7 +6874,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="13" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -6858,7 +6882,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="13" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -6866,7 +6890,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="13" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -6874,7 +6898,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="13" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -6882,7 +6906,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="13" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -6890,7 +6914,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="13" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -6898,7 +6922,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="13" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -6906,7 +6930,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="13" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -6914,7 +6938,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="13" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -6922,7 +6946,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="13" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -6930,7 +6954,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="13" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -6938,7 +6962,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="13" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -6946,7 +6970,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="13" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -6954,7 +6978,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="13" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -6962,7 +6986,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="13" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -6970,7 +6994,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="13" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -6978,7 +7002,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="13" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -6986,7 +7010,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="13" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -6994,7 +7018,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="13" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -7002,7 +7026,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="13" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -7010,7 +7034,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="13" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -7018,7 +7042,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -7026,7 +7050,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="13" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -7034,7 +7058,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="13" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -7042,7 +7066,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="13" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -7050,7 +7074,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="13" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -7058,7 +7082,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="13" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -7066,7 +7090,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="13" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -7074,7 +7098,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -7082,7 +7106,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="13" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -7090,7 +7114,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="13" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -7098,7 +7122,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="13" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -7106,7 +7130,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="13" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -7114,7 +7138,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="13" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -7122,7 +7146,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="13" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -7130,7 +7154,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="13" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -7138,7 +7162,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="13" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -7146,7 +7170,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="13" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -7154,7 +7178,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="13" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -7162,7 +7186,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="13" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -7170,7 +7194,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="13" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -7178,7 +7202,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="13" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -7186,7 +7210,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="13" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -7194,7 +7218,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="13" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -7202,7 +7226,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="13" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -7210,7 +7234,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="13" t="s">
         <v>517</v>
       </c>
       <c r="B518">
@@ -7218,7 +7242,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="13" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -7226,7 +7250,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="13" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -7234,7 +7258,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="13" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -7242,7 +7266,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="13" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -7250,7 +7274,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="13" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -7258,7 +7282,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="13" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -7266,7 +7290,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="13" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -7274,7 +7298,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="13" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -7282,7 +7306,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="13" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -7290,7 +7314,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="13" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -7298,7 +7322,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="13" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -7306,7 +7330,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -7314,7 +7338,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="13" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -7322,7 +7346,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="13" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -7330,7 +7354,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="13" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -7338,7 +7362,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="13" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -7346,7 +7370,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="13" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -7354,7 +7378,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="13" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -7362,7 +7386,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="13" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -7370,7 +7394,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="13" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -7378,7 +7402,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="13" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -7386,7 +7410,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -7394,7 +7418,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="13" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -7402,7 +7426,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -7410,7 +7434,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="13" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -7418,7 +7442,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="13" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -7426,7 +7450,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="13" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -7434,7 +7458,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="13" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -7442,7 +7466,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="13" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -7450,7 +7474,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -7458,7 +7482,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="13" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -7466,7 +7490,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="13" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -7474,7 +7498,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="13" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -7482,7 +7506,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="13" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -7490,7 +7514,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="13" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -7498,7 +7522,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="13" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -7506,7 +7530,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -7514,7 +7538,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="13" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -7522,7 +7546,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="13" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -7530,7 +7554,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="13" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -7538,7 +7562,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="13" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -7546,7 +7570,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="13" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -7554,7 +7578,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="13" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -7562,7 +7586,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="13" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -7570,7 +7594,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="13" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -7578,7 +7602,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="13" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -7586,7 +7610,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="13" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -7594,7 +7618,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="13" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -7602,7 +7626,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="13" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -7610,7 +7634,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="13" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -7618,7 +7642,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="13" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -7626,7 +7650,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="13" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -7634,7 +7658,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="13" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -7642,7 +7666,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="13" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -7650,7 +7674,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="13" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -7658,7 +7682,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="13" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -7666,7 +7690,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="13" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -7674,7 +7698,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="13" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -7682,7 +7706,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="13" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -7690,7 +7714,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="13" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -7698,7 +7722,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="13" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -7706,7 +7730,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="13" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -7714,7 +7738,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="13" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -7722,7 +7746,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="13" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -7730,7 +7754,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="13" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -7738,7 +7762,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="13" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -7746,7 +7770,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="13" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -7754,7 +7778,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="13" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -7762,7 +7786,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="13" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -7770,7 +7794,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="13" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -7778,7 +7802,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="13" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -7786,7 +7810,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="13" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -7794,7 +7818,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="13" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -7802,7 +7826,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -7810,7 +7834,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="13" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -7818,7 +7842,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="13" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -7826,7 +7850,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="13" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -7834,7 +7858,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="13" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -7842,7 +7866,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="13" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -7850,7 +7874,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="13" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -7858,7 +7882,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -7866,7 +7890,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="13" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -7874,7 +7898,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="13" t="s">
         <v>600</v>
       </c>
       <c r="B601">
@@ -7882,7 +7906,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="13" t="s">
         <v>601</v>
       </c>
       <c r="B602">
@@ -7890,7 +7914,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="13" t="s">
         <v>602</v>
       </c>
       <c r="B603">
@@ -7898,7 +7922,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="13" t="s">
         <v>603</v>
       </c>
       <c r="B604">
@@ -7906,7 +7930,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="13" t="s">
         <v>604</v>
       </c>
       <c r="B605">
@@ -7914,7 +7938,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="13" t="s">
         <v>605</v>
       </c>
       <c r="B606">
@@ -7922,7 +7946,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="13" t="s">
         <v>606</v>
       </c>
       <c r="B607">
@@ -7930,7 +7954,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="13" t="s">
         <v>607</v>
       </c>
       <c r="B608">
@@ -7938,7 +7962,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="13" t="s">
         <v>608</v>
       </c>
       <c r="B609">
@@ -7946,7 +7970,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="13" t="s">
         <v>609</v>
       </c>
       <c r="B610">
@@ -7954,7 +7978,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="1" t="s">
+      <c r="A611" s="13" t="s">
         <v>610</v>
       </c>
       <c r="B611">
@@ -7962,7 +7986,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="13" t="s">
         <v>611</v>
       </c>
       <c r="B612">
@@ -7970,7 +7994,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="13" t="s">
         <v>612</v>
       </c>
       <c r="B613">
@@ -7978,7 +8002,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="1" t="s">
+      <c r="A614" s="13" t="s">
         <v>613</v>
       </c>
       <c r="B614">
@@ -7986,7 +8010,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="1" t="s">
+      <c r="A615" s="13" t="s">
         <v>614</v>
       </c>
       <c r="B615">
@@ -7994,7 +8018,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="1" t="s">
+      <c r="A616" s="13" t="s">
         <v>615</v>
       </c>
       <c r="B616">
@@ -8002,7 +8026,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="1" t="s">
+      <c r="A617" s="13" t="s">
         <v>616</v>
       </c>
       <c r="B617">
@@ -8010,7 +8034,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="13" t="s">
         <v>617</v>
       </c>
       <c r="B618">
@@ -8018,7 +8042,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="1" t="s">
+      <c r="A619" s="13" t="s">
         <v>618</v>
       </c>
       <c r="B619">
@@ -8026,7 +8050,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="1" t="s">
+      <c r="A620" s="13" t="s">
         <v>619</v>
       </c>
       <c r="B620">
@@ -8034,7 +8058,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="13" t="s">
         <v>620</v>
       </c>
       <c r="B621">
@@ -8042,7 +8066,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="1" t="s">
+      <c r="A622" s="13" t="s">
         <v>621</v>
       </c>
       <c r="B622">
@@ -8050,7 +8074,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="1" t="s">
+      <c r="A623" s="13" t="s">
         <v>622</v>
       </c>
       <c r="B623">
@@ -8058,7 +8082,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="13" t="s">
         <v>623</v>
       </c>
       <c r="B624">
@@ -8066,7 +8090,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="1" t="s">
+      <c r="A625" s="13" t="s">
         <v>624</v>
       </c>
       <c r="B625">
@@ -8074,7 +8098,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="1" t="s">
+      <c r="A626" s="13" t="s">
         <v>625</v>
       </c>
       <c r="B626">
@@ -8082,7 +8106,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="1" t="s">
+      <c r="A627" s="13" t="s">
         <v>626</v>
       </c>
       <c r="B627">
@@ -8090,7 +8114,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="1" t="s">
+      <c r="A628" s="13" t="s">
         <v>627</v>
       </c>
       <c r="B628">
@@ -8098,7 +8122,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="1" t="s">
+      <c r="A629" s="13" t="s">
         <v>628</v>
       </c>
       <c r="B629">
@@ -8106,7 +8130,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="13" t="s">
         <v>629</v>
       </c>
       <c r="B630">
@@ -8114,7 +8138,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="1" t="s">
+      <c r="A631" s="13" t="s">
         <v>630</v>
       </c>
       <c r="B631">
@@ -8122,7 +8146,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="1" t="s">
+      <c r="A632" s="13" t="s">
         <v>631</v>
       </c>
       <c r="B632">
@@ -8130,7 +8154,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="13" t="s">
         <v>632</v>
       </c>
       <c r="B633">
@@ -8138,7 +8162,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B634">
@@ -8146,7 +8170,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="13" t="s">
         <v>634</v>
       </c>
       <c r="B635">
@@ -8154,7 +8178,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="13" t="s">
         <v>635</v>
       </c>
       <c r="B636">
@@ -8162,7 +8186,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="1" t="s">
+      <c r="A637" s="13" t="s">
         <v>636</v>
       </c>
       <c r="B637">
@@ -8170,7 +8194,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="13" t="s">
         <v>637</v>
       </c>
       <c r="B638">
@@ -8178,7 +8202,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="13" t="s">
         <v>638</v>
       </c>
       <c r="B639">
@@ -8186,7 +8210,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="13" t="s">
         <v>639</v>
       </c>
       <c r="B640">
@@ -8194,7 +8218,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="13" t="s">
         <v>640</v>
       </c>
       <c r="B641">
@@ -8202,7 +8226,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="13" t="s">
         <v>641</v>
       </c>
       <c r="B642">
@@ -8210,7 +8234,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="13" t="s">
         <v>642</v>
       </c>
       <c r="B643">
@@ -8218,7 +8242,7 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="1" t="s">
+      <c r="A644" s="13" t="s">
         <v>643</v>
       </c>
       <c r="B644">
@@ -8226,7 +8250,7 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="1" t="s">
+      <c r="A645" s="13" t="s">
         <v>644</v>
       </c>
       <c r="B645">
@@ -8234,7 +8258,7 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="13" t="s">
         <v>645</v>
       </c>
       <c r="B646">
@@ -8242,7 +8266,7 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="1" t="s">
+      <c r="A647" s="13" t="s">
         <v>646</v>
       </c>
       <c r="B647">
@@ -8250,7 +8274,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="1" t="s">
+      <c r="A648" s="13" t="s">
         <v>647</v>
       </c>
       <c r="B648">
@@ -8258,7 +8282,7 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="1" t="s">
+      <c r="A649" s="13" t="s">
         <v>648</v>
       </c>
       <c r="B649">
@@ -8266,7 +8290,7 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="13" t="s">
         <v>649</v>
       </c>
       <c r="B650">
@@ -8274,7 +8298,7 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="1" t="s">
+      <c r="A651" s="13" t="s">
         <v>650</v>
       </c>
       <c r="B651">
@@ -8282,7 +8306,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="13" t="s">
         <v>651</v>
       </c>
       <c r="B652">
@@ -8290,7 +8314,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="13" t="s">
         <v>652</v>
       </c>
       <c r="B653">
@@ -8298,7 +8322,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="1" t="s">
+      <c r="A654" s="13" t="s">
         <v>653</v>
       </c>
       <c r="B654">
@@ -8306,7 +8330,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="1" t="s">
+      <c r="A655" s="13" t="s">
         <v>654</v>
       </c>
       <c r="B655">
@@ -8314,7 +8338,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="1" t="s">
+      <c r="A656" s="13" t="s">
         <v>655</v>
       </c>
       <c r="B656">
@@ -8322,7 +8346,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="1" t="s">
+      <c r="A657" s="13" t="s">
         <v>656</v>
       </c>
       <c r="B657">
@@ -8330,7 +8354,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="1" t="s">
+      <c r="A658" s="13" t="s">
         <v>657</v>
       </c>
       <c r="B658">
@@ -8338,7 +8362,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="1" t="s">
+      <c r="A659" s="13" t="s">
         <v>658</v>
       </c>
       <c r="B659">
@@ -8346,7 +8370,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="1" t="s">
+      <c r="A660" s="13" t="s">
         <v>659</v>
       </c>
       <c r="B660">
@@ -8354,7 +8378,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="1" t="s">
+      <c r="A661" s="13" t="s">
         <v>660</v>
       </c>
       <c r="B661">
@@ -8362,7 +8386,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="1" t="s">
+      <c r="A662" s="13" t="s">
         <v>661</v>
       </c>
       <c r="B662">
@@ -8370,7 +8394,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="1" t="s">
+      <c r="A663" s="13" t="s">
         <v>662</v>
       </c>
       <c r="B663">
@@ -8378,7 +8402,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="1" t="s">
+      <c r="A664" s="13" t="s">
         <v>663</v>
       </c>
       <c r="B664">
@@ -8386,7 +8410,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="1" t="s">
+      <c r="A665" s="13" t="s">
         <v>664</v>
       </c>
       <c r="B665">
@@ -8394,7 +8418,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="1" t="s">
+      <c r="A666" s="13" t="s">
         <v>665</v>
       </c>
       <c r="B666">
@@ -8402,7 +8426,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="1" t="s">
+      <c r="A667" s="13" t="s">
         <v>666</v>
       </c>
       <c r="B667">
@@ -8410,7 +8434,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="1" t="s">
+      <c r="A668" s="13" t="s">
         <v>667</v>
       </c>
       <c r="B668">
@@ -8418,7 +8442,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="1" t="s">
+      <c r="A669" s="13" t="s">
         <v>668</v>
       </c>
       <c r="B669">
@@ -8426,7 +8450,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="13" t="s">
         <v>669</v>
       </c>
       <c r="B670">
@@ -8434,7 +8458,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="1" t="s">
+      <c r="A671" s="13" t="s">
         <v>670</v>
       </c>
       <c r="B671">
@@ -8442,7 +8466,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="1" t="s">
+      <c r="A672" s="13" t="s">
         <v>671</v>
       </c>
       <c r="B672">
@@ -8450,7 +8474,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="1" t="s">
+      <c r="A673" s="13" t="s">
         <v>672</v>
       </c>
       <c r="B673">
@@ -8458,7 +8482,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="1" t="s">
+      <c r="A674" s="13" t="s">
         <v>673</v>
       </c>
       <c r="B674">
@@ -8466,7 +8490,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B675">
@@ -8474,7 +8498,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="1" t="s">
+      <c r="A676" s="13" t="s">
         <v>675</v>
       </c>
       <c r="B676">
@@ -8482,7 +8506,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="1" t="s">
+      <c r="A677" s="13" t="s">
         <v>676</v>
       </c>
       <c r="B677">
@@ -8490,7 +8514,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="1" t="s">
+      <c r="A678" s="13" t="s">
         <v>677</v>
       </c>
       <c r="B678">
@@ -8498,7 +8522,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="1" t="s">
+      <c r="A679" s="13" t="s">
         <v>678</v>
       </c>
       <c r="B679">
@@ -8506,7 +8530,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="13" t="s">
         <v>679</v>
       </c>
       <c r="B680">
@@ -8514,7 +8538,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="13" t="s">
         <v>680</v>
       </c>
       <c r="B681">
@@ -8522,7 +8546,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="1" t="s">
+      <c r="A682" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B682">
@@ -8530,7 +8554,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="1" t="s">
+      <c r="A683" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B683">
@@ -8538,7 +8562,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="1" t="s">
+      <c r="A684" s="13" t="s">
         <v>683</v>
       </c>
       <c r="B684">
@@ -8546,7 +8570,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="1" t="s">
+      <c r="A685" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B685">
@@ -8554,7 +8578,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="1" t="s">
+      <c r="A686" s="13" t="s">
         <v>685</v>
       </c>
       <c r="B686">
@@ -8562,7 +8586,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="1" t="s">
+      <c r="A687" s="13" t="s">
         <v>686</v>
       </c>
       <c r="B687">
@@ -8570,7 +8594,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="1" t="s">
+      <c r="A688" s="13" t="s">
         <v>687</v>
       </c>
       <c r="B688">
@@ -8578,7 +8602,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="1" t="s">
+      <c r="A689" s="13" t="s">
         <v>688</v>
       </c>
       <c r="B689">
@@ -8586,7 +8610,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="1" t="s">
+      <c r="A690" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B690">
@@ -8594,7 +8618,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="1" t="s">
+      <c r="A691" s="13" t="s">
         <v>690</v>
       </c>
       <c r="B691">
@@ -8602,7 +8626,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="1" t="s">
+      <c r="A692" s="13" t="s">
         <v>691</v>
       </c>
       <c r="B692">
@@ -8610,7 +8634,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="1" t="s">
+      <c r="A693" s="13" t="s">
         <v>692</v>
       </c>
       <c r="B693">
@@ -8618,7 +8642,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="13" t="s">
         <v>693</v>
       </c>
       <c r="B694">
@@ -8626,7 +8650,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="13" t="s">
         <v>694</v>
       </c>
       <c r="B695">
@@ -8634,7 +8658,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="13" t="s">
         <v>695</v>
       </c>
       <c r="B696">
@@ -8642,7 +8666,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="13" t="s">
         <v>696</v>
       </c>
       <c r="B697">
@@ -8650,7 +8674,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="13" t="s">
         <v>697</v>
       </c>
       <c r="B698">
@@ -8658,7 +8682,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="13" t="s">
         <v>698</v>
       </c>
       <c r="B699">
@@ -8666,7 +8690,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="13" t="s">
         <v>699</v>
       </c>
       <c r="B700">
@@ -8674,7 +8698,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="1" t="s">
+      <c r="A701" s="13" t="s">
         <v>700</v>
       </c>
       <c r="B701">
@@ -8682,7 +8706,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="13" t="s">
         <v>701</v>
       </c>
       <c r="B702">
@@ -8690,7 +8714,7 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="13" t="s">
         <v>702</v>
       </c>
       <c r="B703">
@@ -8698,7 +8722,7 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="13" t="s">
         <v>703</v>
       </c>
       <c r="B704">
@@ -8706,7 +8730,7 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="13" t="s">
         <v>704</v>
       </c>
       <c r="B705">
@@ -8714,7 +8738,7 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="13" t="s">
         <v>705</v>
       </c>
       <c r="B706">
@@ -8722,7 +8746,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="13" t="s">
         <v>706</v>
       </c>
       <c r="B707">
@@ -8730,7 +8754,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="13" t="s">
         <v>707</v>
       </c>
       <c r="B708">
@@ -8738,7 +8762,7 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="1" t="s">
+      <c r="A709" s="13" t="s">
         <v>708</v>
       </c>
       <c r="B709">
@@ -8746,7 +8770,7 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="1" t="s">
+      <c r="A710" s="13" t="s">
         <v>709</v>
       </c>
       <c r="B710">
@@ -8754,7 +8778,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="13" t="s">
         <v>710</v>
       </c>
       <c r="B711">
@@ -8762,7 +8786,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="1" t="s">
+      <c r="A712" s="13" t="s">
         <v>711</v>
       </c>
       <c r="B712">
@@ -8770,7 +8794,7 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="1" t="s">
+      <c r="A713" s="13" t="s">
         <v>712</v>
       </c>
       <c r="B713">
@@ -8778,7 +8802,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="1" t="s">
+      <c r="A714" s="13" t="s">
         <v>713</v>
       </c>
       <c r="B714">
@@ -8786,7 +8810,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="1" t="s">
+      <c r="A715" s="13" t="s">
         <v>714</v>
       </c>
       <c r="B715">
@@ -8794,7 +8818,7 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="13" t="s">
         <v>715</v>
       </c>
       <c r="B716">
@@ -8802,7 +8826,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="1" t="s">
+      <c r="A717" s="13" t="s">
         <v>716</v>
       </c>
       <c r="B717">
@@ -8810,7 +8834,7 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="13" t="s">
         <v>717</v>
       </c>
       <c r="B718">
@@ -8818,7 +8842,7 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="13" t="s">
         <v>718</v>
       </c>
       <c r="B719">
@@ -8826,7 +8850,7 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="1" t="s">
+      <c r="A720" s="13" t="s">
         <v>719</v>
       </c>
       <c r="B720">
@@ -8834,7 +8858,7 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="13" t="s">
         <v>720</v>
       </c>
       <c r="B721">
@@ -8842,7 +8866,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="13" t="s">
         <v>721</v>
       </c>
       <c r="B722">
@@ -8850,7 +8874,7 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="13" t="s">
         <v>722</v>
       </c>
       <c r="B723">
@@ -8858,7 +8882,7 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="1" t="s">
+      <c r="A724" s="13" t="s">
         <v>723</v>
       </c>
       <c r="B724">
@@ -8866,7 +8890,7 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="13" t="s">
         <v>724</v>
       </c>
       <c r="B725">
@@ -8874,7 +8898,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="13" t="s">
         <v>725</v>
       </c>
       <c r="B726">
@@ -8882,7 +8906,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="1" t="s">
+      <c r="A727" s="13" t="s">
         <v>726</v>
       </c>
       <c r="B727">
@@ -8890,7 +8914,7 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="13" t="s">
         <v>727</v>
       </c>
       <c r="B728">
@@ -8898,7 +8922,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="13" t="s">
         <v>728</v>
       </c>
       <c r="B729">
@@ -8906,7 +8930,7 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="1" t="s">
+      <c r="A730" s="13" t="s">
         <v>729</v>
       </c>
       <c r="B730">
@@ -8914,7 +8938,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="1" t="s">
+      <c r="A731" s="13" t="s">
         <v>730</v>
       </c>
       <c r="B731">
@@ -8922,7 +8946,7 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="13" t="s">
         <v>731</v>
       </c>
       <c r="B732">
@@ -8930,7 +8954,7 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="13" t="s">
         <v>732</v>
       </c>
       <c r="B733">
@@ -8938,7 +8962,7 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="13" t="s">
         <v>733</v>
       </c>
       <c r="B734">
@@ -8946,7 +8970,7 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="13" t="s">
         <v>734</v>
       </c>
       <c r="B735">
@@ -8954,7 +8978,7 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="13" t="s">
         <v>735</v>
       </c>
       <c r="B736">
@@ -8962,7 +8986,7 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="1" t="s">
+      <c r="A737" s="13" t="s">
         <v>736</v>
       </c>
       <c r="B737">
@@ -8970,7 +8994,7 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="1" t="s">
+      <c r="A738" s="13" t="s">
         <v>737</v>
       </c>
       <c r="B738">
@@ -8978,7 +9002,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="13" t="s">
         <v>738</v>
       </c>
       <c r="B739">
@@ -8986,7 +9010,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="13" t="s">
         <v>739</v>
       </c>
       <c r="B740">
@@ -8994,7 +9018,7 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="1" t="s">
+      <c r="A741" s="13" t="s">
         <v>740</v>
       </c>
       <c r="B741">
@@ -9002,7 +9026,7 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="1" t="s">
+      <c r="A742" s="13" t="s">
         <v>741</v>
       </c>
       <c r="B742">
@@ -9010,7 +9034,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="1" t="s">
+      <c r="A743" s="13" t="s">
         <v>742</v>
       </c>
       <c r="B743">
@@ -9018,7 +9042,7 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="1" t="s">
+      <c r="A744" s="13" t="s">
         <v>743</v>
       </c>
       <c r="B744">
@@ -9026,7 +9050,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="1" t="s">
+      <c r="A745" s="13" t="s">
         <v>744</v>
       </c>
       <c r="B745">
@@ -9034,7 +9058,7 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="1" t="s">
+      <c r="A746" s="13" t="s">
         <v>745</v>
       </c>
       <c r="B746">
@@ -9042,7 +9066,7 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="1" t="s">
+      <c r="A747" s="13" t="s">
         <v>746</v>
       </c>
       <c r="B747">
@@ -9050,7 +9074,7 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="1" t="s">
+      <c r="A748" s="13" t="s">
         <v>747</v>
       </c>
       <c r="B748">
@@ -9058,7 +9082,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="1" t="s">
+      <c r="A749" s="13" t="s">
         <v>748</v>
       </c>
       <c r="B749">
@@ -9066,7 +9090,7 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="1" t="s">
+      <c r="A750" s="13" t="s">
         <v>749</v>
       </c>
       <c r="B750">
@@ -9074,7 +9098,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="1" t="s">
+      <c r="A751" s="13" t="s">
         <v>750</v>
       </c>
       <c r="B751">
@@ -9082,7 +9106,7 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="1" t="s">
+      <c r="A752" s="13" t="s">
         <v>751</v>
       </c>
       <c r="B752">
@@ -9090,7 +9114,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="1" t="s">
+      <c r="A753" s="13" t="s">
         <v>752</v>
       </c>
       <c r="B753">
@@ -9098,7 +9122,7 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="1" t="s">
+      <c r="A754" s="13" t="s">
         <v>753</v>
       </c>
       <c r="B754">
@@ -9106,7 +9130,7 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="13" t="s">
         <v>754</v>
       </c>
       <c r="B755">
@@ -9114,7 +9138,7 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="1" t="s">
+      <c r="A756" s="13" t="s">
         <v>755</v>
       </c>
       <c r="B756">
@@ -9122,7 +9146,7 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="1" t="s">
+      <c r="A757" s="13" t="s">
         <v>756</v>
       </c>
       <c r="B757">
@@ -9130,7 +9154,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="1" t="s">
+      <c r="A758" s="13" t="s">
         <v>757</v>
       </c>
       <c r="B758">
@@ -9138,7 +9162,7 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="1" t="s">
+      <c r="A759" s="13" t="s">
         <v>758</v>
       </c>
       <c r="B759">
@@ -9146,7 +9170,7 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="1" t="s">
+      <c r="A760" s="13" t="s">
         <v>759</v>
       </c>
       <c r="B760">
@@ -9154,7 +9178,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="1" t="s">
+      <c r="A761" s="13" t="s">
         <v>760</v>
       </c>
       <c r="B761">
@@ -9162,7 +9186,7 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="1" t="s">
+      <c r="A762" s="13" t="s">
         <v>761</v>
       </c>
       <c r="B762">
@@ -9170,7 +9194,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="1" t="s">
+      <c r="A763" s="13" t="s">
         <v>762</v>
       </c>
       <c r="B763">
@@ -9178,7 +9202,7 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="1" t="s">
+      <c r="A764" s="13" t="s">
         <v>763</v>
       </c>
       <c r="B764">
@@ -9186,7 +9210,7 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="1" t="s">
+      <c r="A765" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B765">
@@ -9194,7 +9218,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="1" t="s">
+      <c r="A766" s="13" t="s">
         <v>765</v>
       </c>
       <c r="B766">
@@ -9202,7 +9226,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="1" t="s">
+      <c r="A767" s="13" t="s">
         <v>766</v>
       </c>
       <c r="B767">
@@ -9210,7 +9234,7 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="1" t="s">
+      <c r="A768" s="13" t="s">
         <v>767</v>
       </c>
       <c r="B768">
@@ -9218,7 +9242,7 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="1" t="s">
+      <c r="A769" s="13" t="s">
         <v>768</v>
       </c>
       <c r="B769">
@@ -9226,7 +9250,7 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="1" t="s">
+      <c r="A770" s="13" t="s">
         <v>769</v>
       </c>
       <c r="B770">
@@ -9234,7 +9258,7 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="1" t="s">
+      <c r="A771" s="13" t="s">
         <v>770</v>
       </c>
       <c r="B771">
@@ -9242,7 +9266,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="1" t="s">
+      <c r="A772" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B772">
@@ -9250,7 +9274,7 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="1" t="s">
+      <c r="A773" s="13" t="s">
         <v>772</v>
       </c>
       <c r="B773">
@@ -9258,7 +9282,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="1" t="s">
+      <c r="A774" s="13" t="s">
         <v>773</v>
       </c>
       <c r="B774">
@@ -9266,7 +9290,7 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="1" t="s">
+      <c r="A775" s="13" t="s">
         <v>774</v>
       </c>
       <c r="B775">
@@ -9274,7 +9298,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="1" t="s">
+      <c r="A776" s="13" t="s">
         <v>775</v>
       </c>
       <c r="B776">
@@ -9282,7 +9306,7 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="1" t="s">
+      <c r="A777" s="13" t="s">
         <v>776</v>
       </c>
       <c r="B777">
@@ -9290,7 +9314,7 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="1" t="s">
+      <c r="A778" s="13" t="s">
         <v>777</v>
       </c>
       <c r="B778">
@@ -9298,7 +9322,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="1" t="s">
+      <c r="A779" s="13" t="s">
         <v>778</v>
       </c>
       <c r="B779">
@@ -9306,7 +9330,7 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="1" t="s">
+      <c r="A780" s="13" t="s">
         <v>779</v>
       </c>
       <c r="B780">
@@ -9314,7 +9338,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="1" t="s">
+      <c r="A781" s="13" t="s">
         <v>780</v>
       </c>
       <c r="B781">
@@ -9322,7 +9346,7 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="1" t="s">
+      <c r="A782" s="13" t="s">
         <v>781</v>
       </c>
       <c r="B782">
@@ -9330,7 +9354,7 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="1" t="s">
+      <c r="A783" s="13" t="s">
         <v>782</v>
       </c>
       <c r="B783">
@@ -9338,7 +9362,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="13" t="s">
         <v>783</v>
       </c>
       <c r="B784">
@@ -9346,7 +9370,7 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="1" t="s">
+      <c r="A785" s="13" t="s">
         <v>784</v>
       </c>
       <c r="B785">
@@ -9354,7 +9378,7 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="1" t="s">
+      <c r="A786" s="13" t="s">
         <v>785</v>
       </c>
       <c r="B786">
@@ -9362,7 +9386,7 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="13" t="s">
         <v>786</v>
       </c>
       <c r="B787">
@@ -9370,7 +9394,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="1" t="s">
+      <c r="A788" s="13" t="s">
         <v>787</v>
       </c>
       <c r="B788">
@@ -9378,7 +9402,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="1" t="s">
+      <c r="A789" s="13" t="s">
         <v>788</v>
       </c>
       <c r="B789">
@@ -9386,7 +9410,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="1" t="s">
+      <c r="A790" s="13" t="s">
         <v>789</v>
       </c>
       <c r="B790">
@@ -9394,7 +9418,7 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="1" t="s">
+      <c r="A791" s="13" t="s">
         <v>790</v>
       </c>
       <c r="B791">
@@ -9402,7 +9426,7 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="1" t="s">
+      <c r="A792" s="13" t="s">
         <v>791</v>
       </c>
       <c r="B792">
@@ -9410,7 +9434,7 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="1" t="s">
+      <c r="A793" s="13" t="s">
         <v>792</v>
       </c>
       <c r="B793">
@@ -9418,7 +9442,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="1" t="s">
+      <c r="A794" s="13" t="s">
         <v>793</v>
       </c>
       <c r="B794">
@@ -9426,7 +9450,7 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="1" t="s">
+      <c r="A795" s="13" t="s">
         <v>794</v>
       </c>
       <c r="B795">
@@ -9434,7 +9458,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="1" t="s">
+      <c r="A796" s="13" t="s">
         <v>795</v>
       </c>
       <c r="B796">
@@ -9442,7 +9466,7 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="1" t="s">
+      <c r="A797" s="13" t="s">
         <v>796</v>
       </c>
       <c r="B797">
@@ -9450,7 +9474,7 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="1" t="s">
+      <c r="A798" s="13" t="s">
         <v>797</v>
       </c>
       <c r="B798">
@@ -9458,7 +9482,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="1" t="s">
+      <c r="A799" s="13" t="s">
         <v>798</v>
       </c>
       <c r="B799">
@@ -9466,7 +9490,7 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="1" t="s">
+      <c r="A800" s="13" t="s">
         <v>799</v>
       </c>
       <c r="B800">
@@ -9474,7 +9498,7 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="1" t="s">
+      <c r="A801" s="13" t="s">
         <v>800</v>
       </c>
       <c r="B801">
@@ -9482,7 +9506,7 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="1" t="s">
+      <c r="A802" s="13" t="s">
         <v>801</v>
       </c>
       <c r="B802">
@@ -9490,7 +9514,7 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="1" t="s">
+      <c r="A803" s="13" t="s">
         <v>802</v>
       </c>
       <c r="B803">
@@ -9498,7 +9522,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="1" t="s">
+      <c r="A804" s="13" t="s">
         <v>803</v>
       </c>
       <c r="B804">
@@ -9506,7 +9530,7 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="1" t="s">
+      <c r="A805" s="13" t="s">
         <v>804</v>
       </c>
       <c r="B805">
@@ -9514,7 +9538,7 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="1" t="s">
+      <c r="A806" s="13" t="s">
         <v>805</v>
       </c>
       <c r="B806">
@@ -9522,7 +9546,7 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="13" t="s">
         <v>806</v>
       </c>
       <c r="B807">
@@ -9530,7 +9554,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="1" t="s">
+      <c r="A808" s="13" t="s">
         <v>807</v>
       </c>
       <c r="B808">
@@ -9538,7 +9562,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="1" t="s">
+      <c r="A809" s="13" t="s">
         <v>808</v>
       </c>
       <c r="B809">
@@ -9546,7 +9570,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="13" t="s">
         <v>809</v>
       </c>
       <c r="B810">
@@ -9554,7 +9578,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="1" t="s">
+      <c r="A811" s="13" t="s">
         <v>810</v>
       </c>
       <c r="B811">
@@ -9562,7 +9586,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="1" t="s">
+      <c r="A812" s="13" t="s">
         <v>811</v>
       </c>
       <c r="B812">
@@ -9570,7 +9594,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="1" t="s">
+      <c r="A813" s="13" t="s">
         <v>812</v>
       </c>
       <c r="B813">
@@ -9578,7 +9602,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="1" t="s">
+      <c r="A814" s="13" t="s">
         <v>813</v>
       </c>
       <c r="B814">
@@ -9586,7 +9610,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="13" t="s">
         <v>814</v>
       </c>
       <c r="B815">
@@ -9594,7 +9618,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="1" t="s">
+      <c r="A816" s="13" t="s">
         <v>815</v>
       </c>
       <c r="B816">
@@ -9602,7 +9626,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="1" t="s">
+      <c r="A817" s="13" t="s">
         <v>816</v>
       </c>
       <c r="B817">
@@ -9610,7 +9634,7 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="1" t="s">
+      <c r="A818" s="13" t="s">
         <v>817</v>
       </c>
       <c r="B818">
@@ -9618,7 +9642,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="1" t="s">
+      <c r="A819" s="13" t="s">
         <v>818</v>
       </c>
       <c r="B819">
@@ -9626,7 +9650,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="13" t="s">
         <v>819</v>
       </c>
       <c r="B820">
@@ -9634,7 +9658,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="1" t="s">
+      <c r="A821" s="13" t="s">
         <v>820</v>
       </c>
       <c r="B821">
@@ -9642,7 +9666,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="1" t="s">
+      <c r="A822" s="13" t="s">
         <v>821</v>
       </c>
       <c r="B822">
@@ -9650,7 +9674,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="1" t="s">
+      <c r="A823" s="13" t="s">
         <v>822</v>
       </c>
       <c r="B823">
@@ -9658,7 +9682,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="1" t="s">
+      <c r="A824" s="13" t="s">
         <v>823</v>
       </c>
       <c r="B824">
@@ -9666,7 +9690,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="1" t="s">
+      <c r="A825" s="13" t="s">
         <v>824</v>
       </c>
       <c r="B825">
@@ -9674,7 +9698,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="1" t="s">
+      <c r="A826" s="13" t="s">
         <v>825</v>
       </c>
       <c r="B826">
@@ -9682,7 +9706,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="1" t="s">
+      <c r="A827" s="13" t="s">
         <v>826</v>
       </c>
       <c r="B827">
@@ -9690,7 +9714,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="1" t="s">
+      <c r="A828" s="13" t="s">
         <v>827</v>
       </c>
       <c r="B828">
@@ -9698,7 +9722,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="1" t="s">
+      <c r="A829" s="13" t="s">
         <v>828</v>
       </c>
       <c r="B829">
@@ -9706,7 +9730,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="1" t="s">
+      <c r="A830" s="13" t="s">
         <v>829</v>
       </c>
       <c r="B830">
@@ -9714,7 +9738,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="1" t="s">
+      <c r="A831" s="13" t="s">
         <v>830</v>
       </c>
       <c r="B831">
@@ -9722,7 +9746,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="1" t="s">
+      <c r="A832" s="13" t="s">
         <v>831</v>
       </c>
       <c r="B832">
@@ -9730,7 +9754,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="1" t="s">
+      <c r="A833" s="13" t="s">
         <v>832</v>
       </c>
       <c r="B833">
@@ -9738,7 +9762,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="1" t="s">
+      <c r="A834" s="13" t="s">
         <v>833</v>
       </c>
       <c r="B834">
@@ -9746,7 +9770,7 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="1" t="s">
+      <c r="A835" s="13" t="s">
         <v>834</v>
       </c>
       <c r="B835">
@@ -9754,7 +9778,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="1" t="s">
+      <c r="A836" s="13" t="s">
         <v>835</v>
       </c>
       <c r="B836">
@@ -9762,7 +9786,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="1" t="s">
+      <c r="A837" s="13" t="s">
         <v>836</v>
       </c>
       <c r="B837">
@@ -9770,7 +9794,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="1" t="s">
+      <c r="A838" s="13" t="s">
         <v>837</v>
       </c>
       <c r="B838">
@@ -9778,7 +9802,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="1" t="s">
+      <c r="A839" s="13" t="s">
         <v>838</v>
       </c>
       <c r="B839">
@@ -9786,7 +9810,7 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="1" t="s">
+      <c r="A840" s="13" t="s">
         <v>839</v>
       </c>
       <c r="B840">
@@ -9794,7 +9818,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="1" t="s">
+      <c r="A841" s="13" t="s">
         <v>840</v>
       </c>
       <c r="B841">
@@ -9802,7 +9826,7 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="1" t="s">
+      <c r="A842" s="13" t="s">
         <v>841</v>
       </c>
       <c r="B842">
@@ -9810,7 +9834,7 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="1" t="s">
+      <c r="A843" s="13" t="s">
         <v>842</v>
       </c>
       <c r="B843">
@@ -9818,7 +9842,7 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="1" t="s">
+      <c r="A844" s="13" t="s">
         <v>843</v>
       </c>
       <c r="B844">
@@ -9826,7 +9850,7 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="1" t="s">
+      <c r="A845" s="13" t="s">
         <v>844</v>
       </c>
       <c r="B845">
@@ -9834,7 +9858,7 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="13" t="s">
         <v>845</v>
       </c>
       <c r="B846">
@@ -9842,7 +9866,7 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="1" t="s">
+      <c r="A847" s="13" t="s">
         <v>846</v>
       </c>
       <c r="B847">
@@ -9850,7 +9874,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="1" t="s">
+      <c r="A848" s="13" t="s">
         <v>847</v>
       </c>
       <c r="B848">
@@ -9858,7 +9882,7 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="1" t="s">
+      <c r="A849" s="13" t="s">
         <v>848</v>
       </c>
       <c r="B849">
@@ -9866,7 +9890,7 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="13" t="s">
         <v>849</v>
       </c>
       <c r="B850">
@@ -9874,7 +9898,7 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="13" t="s">
         <v>850</v>
       </c>
       <c r="B851">
@@ -9882,7 +9906,7 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="13" t="s">
         <v>851</v>
       </c>
       <c r="B852">
@@ -9890,7 +9914,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="1" t="s">
+      <c r="A853" s="13" t="s">
         <v>852</v>
       </c>
       <c r="B853">
@@ -9898,7 +9922,7 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="1" t="s">
+      <c r="A854" s="13" t="s">
         <v>853</v>
       </c>
       <c r="B854">
@@ -9906,7 +9930,7 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="1" t="s">
+      <c r="A855" s="13" t="s">
         <v>854</v>
       </c>
       <c r="B855">
@@ -9914,7 +9938,7 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="1" t="s">
+      <c r="A856" s="13" t="s">
         <v>855</v>
       </c>
       <c r="B856">
@@ -9922,7 +9946,7 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="1" t="s">
+      <c r="A857" s="13" t="s">
         <v>856</v>
       </c>
       <c r="B857">
@@ -9930,7 +9954,7 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="1" t="s">
+      <c r="A858" s="13" t="s">
         <v>857</v>
       </c>
       <c r="B858">
@@ -9938,7 +9962,7 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" s="1" t="s">
+      <c r="A859" s="13" t="s">
         <v>858</v>
       </c>
       <c r="B859">
@@ -9946,7 +9970,7 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="1" t="s">
+      <c r="A860" s="13" t="s">
         <v>859</v>
       </c>
       <c r="B860">
@@ -9954,7 +9978,7 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="1" t="s">
+      <c r="A861" s="13" t="s">
         <v>860</v>
       </c>
       <c r="B861">
@@ -9962,7 +9986,7 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="1" t="s">
+      <c r="A862" s="13" t="s">
         <v>861</v>
       </c>
       <c r="B862">
@@ -9970,7 +9994,7 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="1" t="s">
+      <c r="A863" s="13" t="s">
         <v>862</v>
       </c>
       <c r="B863">
@@ -9978,7 +10002,7 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="1" t="s">
+      <c r="A864" s="13" t="s">
         <v>863</v>
       </c>
       <c r="B864">
@@ -9986,7 +10010,7 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="1" t="s">
+      <c r="A865" s="13" t="s">
         <v>864</v>
       </c>
       <c r="B865">
@@ -9994,7 +10018,7 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="1" t="s">
+      <c r="A866" s="13" t="s">
         <v>865</v>
       </c>
       <c r="B866">
@@ -10002,7 +10026,7 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" s="1" t="s">
+      <c r="A867" s="13" t="s">
         <v>866</v>
       </c>
       <c r="B867">
@@ -10010,7 +10034,7 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" s="1" t="s">
+      <c r="A868" s="13" t="s">
         <v>867</v>
       </c>
       <c r="B868">
@@ -10018,7 +10042,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="1" t="s">
+      <c r="A869" s="13" t="s">
         <v>868</v>
       </c>
       <c r="B869">
@@ -10026,7 +10050,7 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="1" t="s">
+      <c r="A870" s="13" t="s">
         <v>869</v>
       </c>
       <c r="B870">
@@ -10034,7 +10058,7 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" s="1" t="s">
+      <c r="A871" s="13" t="s">
         <v>870</v>
       </c>
       <c r="B871">
@@ -10042,7 +10066,7 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="1" t="s">
+      <c r="A872" s="13" t="s">
         <v>871</v>
       </c>
       <c r="B872">
@@ -10050,7 +10074,7 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" s="1" t="s">
+      <c r="A873" s="13" t="s">
         <v>872</v>
       </c>
       <c r="B873">
@@ -10058,7 +10082,7 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="1" t="s">
+      <c r="A874" s="13" t="s">
         <v>873</v>
       </c>
       <c r="B874">
@@ -10066,7 +10090,7 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" s="1" t="s">
+      <c r="A875" s="13" t="s">
         <v>874</v>
       </c>
       <c r="B875">
@@ -10074,7 +10098,7 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="1" t="s">
+      <c r="A876" s="13" t="s">
         <v>875</v>
       </c>
       <c r="B876">
@@ -10082,7 +10106,7 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="1" t="s">
+      <c r="A877" s="13" t="s">
         <v>876</v>
       </c>
       <c r="B877">
@@ -10090,7 +10114,7 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="1" t="s">
+      <c r="A878" s="13" t="s">
         <v>877</v>
       </c>
       <c r="B878">
@@ -10098,7 +10122,7 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="1" t="s">
+      <c r="A879" s="13" t="s">
         <v>878</v>
       </c>
       <c r="B879">
@@ -10106,7 +10130,7 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" s="1" t="s">
+      <c r="A880" s="13" t="s">
         <v>879</v>
       </c>
       <c r="B880">
@@ -10114,7 +10138,7 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" s="1" t="s">
+      <c r="A881" s="13" t="s">
         <v>880</v>
       </c>
       <c r="B881">
@@ -10122,7 +10146,7 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" s="1" t="s">
+      <c r="A882" s="13" t="s">
         <v>881</v>
       </c>
       <c r="B882">
@@ -10130,7 +10154,7 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="1" t="s">
+      <c r="A883" s="13" t="s">
         <v>882</v>
       </c>
       <c r="B883">
@@ -10138,7 +10162,7 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="1" t="s">
+      <c r="A884" s="13" t="s">
         <v>883</v>
       </c>
       <c r="B884">
@@ -10146,7 +10170,7 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" s="1" t="s">
+      <c r="A885" s="13" t="s">
         <v>884</v>
       </c>
       <c r="B885">
@@ -10154,7 +10178,7 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" s="1" t="s">
+      <c r="A886" s="13" t="s">
         <v>885</v>
       </c>
       <c r="B886">
@@ -10162,7 +10186,7 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="1" t="s">
+      <c r="A887" s="13" t="s">
         <v>886</v>
       </c>
       <c r="B887">
@@ -10170,7 +10194,7 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="1" t="s">
+      <c r="A888" s="13" t="s">
         <v>887</v>
       </c>
       <c r="B888">
@@ -10178,7 +10202,7 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" s="1" t="s">
+      <c r="A889" s="13" t="s">
         <v>888</v>
       </c>
       <c r="B889">
@@ -10186,7 +10210,7 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" s="1" t="s">
+      <c r="A890" s="13" t="s">
         <v>889</v>
       </c>
       <c r="B890">
@@ -10194,7 +10218,7 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" s="1" t="s">
+      <c r="A891" s="13" t="s">
         <v>890</v>
       </c>
       <c r="B891">
@@ -10202,7 +10226,7 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" s="1" t="s">
+      <c r="A892" s="13" t="s">
         <v>891</v>
       </c>
       <c r="B892">
@@ -10210,7 +10234,7 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" s="1" t="s">
+      <c r="A893" s="13" t="s">
         <v>892</v>
       </c>
       <c r="B893">
@@ -10218,7 +10242,7 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" s="1" t="s">
+      <c r="A894" s="13" t="s">
         <v>893</v>
       </c>
       <c r="B894">
@@ -10226,7 +10250,7 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="1" t="s">
+      <c r="A895" s="13" t="s">
         <v>894</v>
       </c>
       <c r="B895">
@@ -10234,7 +10258,7 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" s="1" t="s">
+      <c r="A896" s="13" t="s">
         <v>895</v>
       </c>
       <c r="B896">
@@ -10242,7 +10266,7 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="1" t="s">
+      <c r="A897" s="13" t="s">
         <v>896</v>
       </c>
       <c r="B897">
@@ -10250,7 +10274,7 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" s="1" t="s">
+      <c r="A898" s="13" t="s">
         <v>897</v>
       </c>
       <c r="B898">
@@ -10258,7 +10282,7 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" s="1" t="s">
+      <c r="A899" s="13" t="s">
         <v>898</v>
       </c>
       <c r="B899">
@@ -10266,7 +10290,7 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" s="1" t="s">
+      <c r="A900" s="13" t="s">
         <v>899</v>
       </c>
       <c r="B900">
@@ -10274,7 +10298,7 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="1" t="s">
+      <c r="A901" s="13" t="s">
         <v>900</v>
       </c>
       <c r="B901">
@@ -10282,7 +10306,7 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="1" t="s">
+      <c r="A902" s="13" t="s">
         <v>901</v>
       </c>
       <c r="B902">
@@ -10290,7 +10314,7 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="1" t="s">
+      <c r="A903" s="13" t="s">
         <v>902</v>
       </c>
       <c r="B903">
@@ -10298,7 +10322,7 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="1" t="s">
+      <c r="A904" s="13" t="s">
         <v>903</v>
       </c>
       <c r="B904">
@@ -10306,7 +10330,7 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="1" t="s">
+      <c r="A905" s="13" t="s">
         <v>904</v>
       </c>
       <c r="B905">
@@ -10314,7 +10338,7 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="1" t="s">
+      <c r="A906" s="13" t="s">
         <v>905</v>
       </c>
       <c r="B906">
@@ -10322,7 +10346,7 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="1" t="s">
+      <c r="A907" s="13" t="s">
         <v>906</v>
       </c>
       <c r="B907">
@@ -10330,7 +10354,7 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" s="1" t="s">
+      <c r="A908" s="13" t="s">
         <v>907</v>
       </c>
       <c r="B908">
@@ -10338,7 +10362,7 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" s="1" t="s">
+      <c r="A909" s="13" t="s">
         <v>908</v>
       </c>
       <c r="B909">
@@ -10346,7 +10370,7 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="1" t="s">
+      <c r="A910" s="13" t="s">
         <v>909</v>
       </c>
       <c r="B910">
@@ -10354,7 +10378,7 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" s="1" t="s">
+      <c r="A911" s="13" t="s">
         <v>910</v>
       </c>
       <c r="B911">
@@ -10362,7 +10386,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="1" t="s">
+      <c r="A912" s="13" t="s">
         <v>911</v>
       </c>
       <c r="B912">
@@ -10370,7 +10394,7 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" s="1" t="s">
+      <c r="A913" s="13" t="s">
         <v>912</v>
       </c>
       <c r="B913">
@@ -10378,7 +10402,7 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" s="1" t="s">
+      <c r="A914" s="13" t="s">
         <v>913</v>
       </c>
       <c r="B914">
@@ -10386,7 +10410,7 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" s="1" t="s">
+      <c r="A915" s="13" t="s">
         <v>914</v>
       </c>
       <c r="B915">
@@ -10394,7 +10418,7 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" s="1" t="s">
+      <c r="A916" s="13" t="s">
         <v>915</v>
       </c>
       <c r="B916">
@@ -10402,7 +10426,7 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="1" t="s">
+      <c r="A917" s="13" t="s">
         <v>916</v>
       </c>
       <c r="B917">
@@ -10410,7 +10434,7 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" s="1" t="s">
+      <c r="A918" s="13" t="s">
         <v>917</v>
       </c>
       <c r="B918">
@@ -10418,7 +10442,7 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" s="1" t="s">
+      <c r="A919" s="13" t="s">
         <v>918</v>
       </c>
       <c r="B919">
@@ -10426,7 +10450,7 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" s="1" t="s">
+      <c r="A920" s="13" t="s">
         <v>919</v>
       </c>
       <c r="B920">
@@ -10434,7 +10458,7 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" s="1" t="s">
+      <c r="A921" s="13" t="s">
         <v>920</v>
       </c>
       <c r="B921">
@@ -10442,7 +10466,7 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="1" t="s">
+      <c r="A922" s="13" t="s">
         <v>921</v>
       </c>
       <c r="B922">
@@ -10450,7 +10474,7 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" s="1" t="s">
+      <c r="A923" s="13" t="s">
         <v>922</v>
       </c>
       <c r="B923">
@@ -10458,7 +10482,7 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" s="1" t="s">
+      <c r="A924" s="13" t="s">
         <v>923</v>
       </c>
       <c r="B924">
@@ -10466,7 +10490,7 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" s="1" t="s">
+      <c r="A925" s="13" t="s">
         <v>924</v>
       </c>
       <c r="B925">
@@ -10474,7 +10498,7 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" s="1" t="s">
+      <c r="A926" s="13" t="s">
         <v>925</v>
       </c>
       <c r="B926">
@@ -10482,7 +10506,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="1" t="s">
+      <c r="A927" s="13" t="s">
         <v>926</v>
       </c>
       <c r="B927">
@@ -10490,7 +10514,7 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" s="1" t="s">
+      <c r="A928" s="13" t="s">
         <v>927</v>
       </c>
       <c r="B928">
@@ -10498,7 +10522,7 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" s="1" t="s">
+      <c r="A929" s="13" t="s">
         <v>928</v>
       </c>
       <c r="B929">
@@ -10506,7 +10530,7 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" s="1" t="s">
+      <c r="A930" s="13" t="s">
         <v>929</v>
       </c>
       <c r="B930">
@@ -10514,7 +10538,7 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" s="1" t="s">
+      <c r="A931" s="13" t="s">
         <v>930</v>
       </c>
       <c r="B931">
@@ -10522,7 +10546,7 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="1" t="s">
+      <c r="A932" s="13" t="s">
         <v>931</v>
       </c>
       <c r="B932">
@@ -10530,7 +10554,7 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" s="1" t="s">
+      <c r="A933" s="13" t="s">
         <v>932</v>
       </c>
       <c r="B933">
@@ -10538,7 +10562,7 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" s="1" t="s">
+      <c r="A934" s="13" t="s">
         <v>933</v>
       </c>
       <c r="B934">
@@ -10546,7 +10570,7 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" s="1" t="s">
+      <c r="A935" s="13" t="s">
         <v>934</v>
       </c>
       <c r="B935">
@@ -10554,7 +10578,7 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" s="1" t="s">
+      <c r="A936" s="13" t="s">
         <v>935</v>
       </c>
       <c r="B936">
@@ -10562,7 +10586,7 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="1" t="s">
+      <c r="A937" s="13" t="s">
         <v>936</v>
       </c>
       <c r="B937">
@@ -10570,7 +10594,7 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" s="1" t="s">
+      <c r="A938" s="13" t="s">
         <v>937</v>
       </c>
       <c r="B938">
@@ -10578,7 +10602,7 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" s="1" t="s">
+      <c r="A939" s="13" t="s">
         <v>938</v>
       </c>
       <c r="B939">
@@ -10586,7 +10610,7 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" s="1" t="s">
+      <c r="A940" s="13" t="s">
         <v>939</v>
       </c>
       <c r="B940">
@@ -10594,7 +10618,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="1" t="s">
+      <c r="A941" s="13" t="s">
         <v>940</v>
       </c>
       <c r="B941">
@@ -10602,7 +10626,7 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" s="1" t="s">
+      <c r="A942" s="13" t="s">
         <v>941</v>
       </c>
       <c r="B942">
@@ -10610,7 +10634,7 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" s="1" t="s">
+      <c r="A943" s="13" t="s">
         <v>942</v>
       </c>
       <c r="B943">
@@ -10618,7 +10642,7 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" s="1" t="s">
+      <c r="A944" s="13" t="s">
         <v>943</v>
       </c>
       <c r="B944">
@@ -10626,7 +10650,7 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" s="1" t="s">
+      <c r="A945" s="13" t="s">
         <v>944</v>
       </c>
       <c r="B945">
@@ -10634,7 +10658,7 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" s="1" t="s">
+      <c r="A946" s="13" t="s">
         <v>945</v>
       </c>
       <c r="B946">
@@ -10642,7 +10666,7 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" s="1" t="s">
+      <c r="A947" s="13" t="s">
         <v>946</v>
       </c>
       <c r="B947">
@@ -10650,7 +10674,7 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" s="1" t="s">
+      <c r="A948" s="13" t="s">
         <v>947</v>
       </c>
       <c r="B948">
@@ -10658,7 +10682,7 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" s="1" t="s">
+      <c r="A949" s="13" t="s">
         <v>948</v>
       </c>
       <c r="B949">
@@ -10666,7 +10690,7 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" s="1" t="s">
+      <c r="A950" s="13" t="s">
         <v>949</v>
       </c>
       <c r="B950">
@@ -10674,7 +10698,7 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" s="1" t="s">
+      <c r="A951" s="13" t="s">
         <v>950</v>
       </c>
       <c r="B951">
@@ -10682,7 +10706,7 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" s="1" t="s">
+      <c r="A952" s="13" t="s">
         <v>951</v>
       </c>
       <c r="B952">
@@ -10690,7 +10714,7 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" s="1" t="s">
+      <c r="A953" s="13" t="s">
         <v>952</v>
       </c>
       <c r="B953">
@@ -10698,7 +10722,7 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" s="1" t="s">
+      <c r="A954" s="13" t="s">
         <v>953</v>
       </c>
       <c r="B954">
@@ -10706,7 +10730,7 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" s="1" t="s">
+      <c r="A955" s="13" t="s">
         <v>954</v>
       </c>
       <c r="B955">
@@ -10714,7 +10738,7 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" s="1" t="s">
+      <c r="A956" s="13" t="s">
         <v>955</v>
       </c>
       <c r="B956">
@@ -10722,7 +10746,7 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" s="1" t="s">
+      <c r="A957" s="13" t="s">
         <v>956</v>
       </c>
       <c r="B957">
@@ -10730,7 +10754,7 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" s="1" t="s">
+      <c r="A958" s="13" t="s">
         <v>957</v>
       </c>
       <c r="B958">
@@ -10738,7 +10762,7 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" s="1" t="s">
+      <c r="A959" s="13" t="s">
         <v>958</v>
       </c>
       <c r="B959">
@@ -10746,7 +10770,7 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" s="1" t="s">
+      <c r="A960" s="13" t="s">
         <v>959</v>
       </c>
       <c r="B960">
@@ -10754,7 +10778,7 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="1" t="s">
+      <c r="A961" s="13" t="s">
         <v>960</v>
       </c>
       <c r="B961">
@@ -10762,7 +10786,7 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" s="1" t="s">
+      <c r="A962" s="13" t="s">
         <v>961</v>
       </c>
       <c r="B962">
@@ -10770,7 +10794,7 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="1" t="s">
+      <c r="A963" s="13" t="s">
         <v>962</v>
       </c>
       <c r="B963">
@@ -10778,7 +10802,7 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" s="1" t="s">
+      <c r="A964" s="13" t="s">
         <v>963</v>
       </c>
       <c r="B964">
@@ -10786,7 +10810,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="1" t="s">
+      <c r="A965" s="13" t="s">
         <v>964</v>
       </c>
       <c r="B965">
@@ -10794,7 +10818,7 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" s="1" t="s">
+      <c r="A966" s="13" t="s">
         <v>965</v>
       </c>
       <c r="B966">
@@ -10802,7 +10826,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" s="1" t="s">
+      <c r="A967" s="13" t="s">
         <v>966</v>
       </c>
       <c r="B967">
@@ -10810,7 +10834,7 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" s="1" t="s">
+      <c r="A968" s="13" t="s">
         <v>967</v>
       </c>
       <c r="B968">
@@ -10818,7 +10842,7 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" s="1" t="s">
+      <c r="A969" s="13" t="s">
         <v>968</v>
       </c>
       <c r="B969">
@@ -10826,7 +10850,7 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="1" t="s">
+      <c r="A970" s="13" t="s">
         <v>969</v>
       </c>
       <c r="B970">
@@ -10834,7 +10858,7 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" s="1" t="s">
+      <c r="A971" s="13" t="s">
         <v>970</v>
       </c>
       <c r="B971">
@@ -10842,7 +10866,7 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" s="1" t="s">
+      <c r="A972" s="13" t="s">
         <v>971</v>
       </c>
       <c r="B972">
@@ -10850,7 +10874,7 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" s="1" t="s">
+      <c r="A973" s="13" t="s">
         <v>972</v>
       </c>
       <c r="B973">
@@ -10858,7 +10882,7 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="1" t="s">
+      <c r="A974" s="13" t="s">
         <v>973</v>
       </c>
       <c r="B974">
@@ -10866,7 +10890,7 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" s="1" t="s">
+      <c r="A975" s="13" t="s">
         <v>974</v>
       </c>
       <c r="B975">
@@ -10874,7 +10898,7 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" s="1" t="s">
+      <c r="A976" s="13" t="s">
         <v>975</v>
       </c>
       <c r="B976">
@@ -10882,7 +10906,7 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" s="1" t="s">
+      <c r="A977" s="13" t="s">
         <v>976</v>
       </c>
       <c r="B977">
@@ -10890,7 +10914,7 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" s="1" t="s">
+      <c r="A978" s="13" t="s">
         <v>977</v>
       </c>
       <c r="B978">
@@ -10898,7 +10922,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="1" t="s">
+      <c r="A979" s="13" t="s">
         <v>978</v>
       </c>
       <c r="B979">
@@ -10906,7 +10930,7 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="1" t="s">
+      <c r="A980" s="13" t="s">
         <v>979</v>
       </c>
       <c r="B980">
@@ -10914,7 +10938,7 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" s="1" t="s">
+      <c r="A981" s="13" t="s">
         <v>980</v>
       </c>
       <c r="B981">
@@ -10922,7 +10946,7 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" s="1" t="s">
+      <c r="A982" s="13" t="s">
         <v>981</v>
       </c>
       <c r="B982">
@@ -10930,7 +10954,7 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" s="1" t="s">
+      <c r="A983" s="13" t="s">
         <v>982</v>
       </c>
       <c r="B983">
@@ -10938,7 +10962,7 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" s="1" t="s">
+      <c r="A984" s="13" t="s">
         <v>983</v>
       </c>
       <c r="B984">
@@ -10946,7 +10970,7 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" s="1" t="s">
+      <c r="A985" s="13" t="s">
         <v>984</v>
       </c>
       <c r="B985">
@@ -10954,7 +10978,7 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" s="1" t="s">
+      <c r="A986" s="13" t="s">
         <v>985</v>
       </c>
       <c r="B986">
@@ -10962,7 +10986,7 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" s="1" t="s">
+      <c r="A987" s="13" t="s">
         <v>986</v>
       </c>
       <c r="B987">
@@ -10970,7 +10994,7 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" s="1" t="s">
+      <c r="A988" s="13" t="s">
         <v>987</v>
       </c>
       <c r="B988">
@@ -10978,7 +11002,7 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" s="1" t="s">
+      <c r="A989" s="13" t="s">
         <v>988</v>
       </c>
       <c r="B989">
@@ -10986,7 +11010,7 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" s="1" t="s">
+      <c r="A990" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B990">
@@ -10994,7 +11018,7 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" s="1" t="s">
+      <c r="A991" s="13" t="s">
         <v>990</v>
       </c>
       <c r="B991">
@@ -11002,7 +11026,7 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" s="1" t="s">
+      <c r="A992" s="13" t="s">
         <v>991</v>
       </c>
       <c r="B992">
@@ -11010,7 +11034,7 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" s="1" t="s">
+      <c r="A993" s="13" t="s">
         <v>992</v>
       </c>
       <c r="B993">
@@ -11018,7 +11042,7 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" s="1" t="s">
+      <c r="A994" s="13" t="s">
         <v>993</v>
       </c>
       <c r="B994">
@@ -11026,7 +11050,7 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" s="1" t="s">
+      <c r="A995" s="13" t="s">
         <v>994</v>
       </c>
       <c r="B995">
@@ -11034,7 +11058,7 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" s="1" t="s">
+      <c r="A996" s="13" t="s">
         <v>995</v>
       </c>
       <c r="B996">
@@ -11042,7 +11066,7 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="1" t="s">
+      <c r="A997" s="13" t="s">
         <v>996</v>
       </c>
       <c r="B997">
@@ -11050,7 +11074,7 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" s="1" t="s">
+      <c r="A998" s="13" t="s">
         <v>997</v>
       </c>
       <c r="B998">
@@ -11058,7 +11082,7 @@
       </c>
     </row>
     <row r="999">
-      <c r="A999" s="1" t="s">
+      <c r="A999" s="13" t="s">
         <v>998</v>
       </c>
       <c r="B999">
@@ -11066,7 +11090,7 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" s="1" t="s">
+      <c r="A1000" s="13" t="s">
         <v>999</v>
       </c>
       <c r="B1000">
@@ -11074,7 +11098,7 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" s="1" t="s">
+      <c r="A1001" s="13" t="s">
         <v>1000</v>
       </c>
       <c r="B1001">

--- a/SourceDataTables/FigS7f.xlsx
+++ b/SourceDataTables/FigS7f.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8016" uniqueCount="1002">
   <si>
     <t>BootstrapID</t>
   </si>
@@ -3039,7 +3039,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3061,11 +3061,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3081,6 +3083,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3098,15 +3102,15 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3114,7 +3118,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3122,7 +3126,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3130,7 +3134,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3138,7 +3142,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3146,7 +3150,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3154,7 +3158,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3162,7 +3166,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3170,7 +3174,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3178,7 +3182,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3186,7 +3190,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3194,7 +3198,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3202,7 +3206,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3210,7 +3214,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3218,7 +3222,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3226,7 +3230,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3234,7 +3238,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3242,7 +3246,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3250,7 +3254,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3258,7 +3262,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3266,7 +3270,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3274,7 +3278,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3282,7 +3286,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3290,7 +3294,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3298,7 +3302,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3306,7 +3310,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3314,7 +3318,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3322,7 +3326,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3330,7 +3334,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3338,7 +3342,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3346,7 +3350,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -3354,7 +3358,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -3362,7 +3366,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -3370,7 +3374,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -3378,7 +3382,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -3386,7 +3390,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -3394,7 +3398,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -3402,7 +3406,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3410,7 +3414,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -3418,7 +3422,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -3426,7 +3430,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -3434,7 +3438,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3442,7 +3446,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3450,7 +3454,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -3458,7 +3462,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -3466,7 +3470,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -3474,7 +3478,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -3482,7 +3486,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -3490,7 +3494,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -3498,7 +3502,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -3506,7 +3510,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -3514,7 +3518,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -3522,7 +3526,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -3530,7 +3534,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -3538,7 +3542,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -3546,7 +3550,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -3554,7 +3558,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -3562,7 +3566,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -3570,7 +3574,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -3578,7 +3582,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -3586,7 +3590,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -3594,7 +3598,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -3602,7 +3606,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -3610,7 +3614,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -3618,7 +3622,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3626,7 +3630,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -3634,7 +3638,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -3642,7 +3646,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -3650,7 +3654,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -3658,7 +3662,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -3666,7 +3670,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -3674,7 +3678,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -3682,7 +3686,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -3690,7 +3694,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -3698,7 +3702,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -3706,7 +3710,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -3714,7 +3718,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -3722,7 +3726,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -3730,7 +3734,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -3738,7 +3742,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -3746,7 +3750,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -3754,7 +3758,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -3762,7 +3766,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -3770,7 +3774,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -3778,7 +3782,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -3786,7 +3790,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -3794,7 +3798,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -3802,7 +3806,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -3810,7 +3814,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -3818,7 +3822,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -3826,7 +3830,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -3834,7 +3838,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -3842,7 +3846,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -3850,7 +3854,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -3858,7 +3862,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -3866,7 +3870,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -3874,7 +3878,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -3882,7 +3886,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3890,7 +3894,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3898,7 +3902,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3906,7 +3910,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3914,7 +3918,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3922,7 +3926,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3930,7 +3934,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3938,7 +3942,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3946,7 +3950,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3954,7 +3958,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3962,7 +3966,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3970,7 +3974,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3978,7 +3982,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3986,7 +3990,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3994,7 +3998,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -4002,7 +4006,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -4010,7 +4014,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -4018,7 +4022,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -4026,7 +4030,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -4034,7 +4038,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -4042,7 +4046,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -4050,7 +4054,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -4058,7 +4062,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -4066,7 +4070,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -4074,7 +4078,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -4082,7 +4086,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -4090,7 +4094,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -4098,7 +4102,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -4106,7 +4110,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -4114,7 +4118,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -4122,7 +4126,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -4130,7 +4134,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -4138,7 +4142,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -4146,7 +4150,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -4154,7 +4158,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -4162,7 +4166,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -4170,7 +4174,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -4178,7 +4182,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -4186,7 +4190,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -4194,7 +4198,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -4202,7 +4206,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -4210,7 +4214,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -4218,7 +4222,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -4226,7 +4230,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -4234,7 +4238,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -4242,7 +4246,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -4250,7 +4254,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -4258,7 +4262,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -4266,7 +4270,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -4274,7 +4278,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -4282,7 +4286,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -4290,7 +4294,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -4298,7 +4302,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -4306,7 +4310,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -4314,7 +4318,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -4322,7 +4326,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -4330,7 +4334,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -4338,7 +4342,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -4346,7 +4350,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -4354,7 +4358,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -4362,7 +4366,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -4370,7 +4374,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -4378,7 +4382,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -4386,7 +4390,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="15" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -4394,7 +4398,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -4402,7 +4406,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -4410,7 +4414,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -4418,7 +4422,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -4426,7 +4430,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -4434,7 +4438,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -4442,7 +4446,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -4450,7 +4454,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -4458,7 +4462,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -4466,7 +4470,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -4474,7 +4478,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -4482,7 +4486,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -4490,7 +4494,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -4498,7 +4502,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -4506,7 +4510,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -4514,7 +4518,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="15" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -4522,7 +4526,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="15" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -4530,7 +4534,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -4538,7 +4542,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -4546,7 +4550,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -4554,7 +4558,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="13" t="s">
+      <c r="A183" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -4562,7 +4566,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="13" t="s">
+      <c r="A184" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -4570,7 +4574,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -4578,7 +4582,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -4586,7 +4590,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -4594,7 +4598,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -4602,7 +4606,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="13" t="s">
+      <c r="A189" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -4610,7 +4614,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -4618,7 +4622,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="13" t="s">
+      <c r="A191" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -4626,7 +4630,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -4634,7 +4638,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -4642,7 +4646,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -4650,7 +4654,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -4658,7 +4662,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -4666,7 +4670,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -4674,7 +4678,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -4682,7 +4686,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -4690,7 +4694,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="15" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -4698,7 +4702,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -4706,7 +4710,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="13" t="s">
+      <c r="A202" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -4714,7 +4718,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -4722,7 +4726,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -4730,7 +4734,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="13" t="s">
+      <c r="A205" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -4738,7 +4742,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -4746,7 +4750,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -4754,7 +4758,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="15" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -4762,7 +4766,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -4770,7 +4774,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -4778,7 +4782,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -4786,7 +4790,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -4794,7 +4798,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="13" t="s">
+      <c r="A213" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -4802,7 +4806,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="13" t="s">
+      <c r="A214" s="15" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -4810,7 +4814,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="13" t="s">
+      <c r="A215" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -4818,7 +4822,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="13" t="s">
+      <c r="A216" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -4826,7 +4830,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="13" t="s">
+      <c r="A217" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -4834,7 +4838,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="13" t="s">
+      <c r="A218" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -4842,7 +4846,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="13" t="s">
+      <c r="A219" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -4850,7 +4854,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="13" t="s">
+      <c r="A220" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -4858,7 +4862,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -4866,7 +4870,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="13" t="s">
+      <c r="A222" s="15" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -4874,7 +4878,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="13" t="s">
+      <c r="A223" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -4882,7 +4886,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="15" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -4890,7 +4894,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -4898,7 +4902,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="13" t="s">
+      <c r="A226" s="15" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -4906,7 +4910,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -4914,7 +4918,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="13" t="s">
+      <c r="A228" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -4922,7 +4926,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="13" t="s">
+      <c r="A229" s="15" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -4930,7 +4934,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="13" t="s">
+      <c r="A230" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -4938,7 +4942,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="13" t="s">
+      <c r="A231" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -4946,7 +4950,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="15" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -4954,7 +4958,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="13" t="s">
+      <c r="A233" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -4962,7 +4966,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="13" t="s">
+      <c r="A234" s="15" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -4970,7 +4974,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="13" t="s">
+      <c r="A235" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -4978,7 +4982,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="13" t="s">
+      <c r="A236" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -4986,7 +4990,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="13" t="s">
+      <c r="A237" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -4994,7 +4998,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="13" t="s">
+      <c r="A238" s="15" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -5002,7 +5006,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="15" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -5010,7 +5014,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="13" t="s">
+      <c r="A240" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -5018,7 +5022,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="13" t="s">
+      <c r="A241" s="15" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -5026,7 +5030,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -5034,7 +5038,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="13" t="s">
+      <c r="A243" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -5042,7 +5046,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="13" t="s">
+      <c r="A244" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -5050,7 +5054,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="13" t="s">
+      <c r="A245" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -5058,7 +5062,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="13" t="s">
+      <c r="A246" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -5066,7 +5070,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="13" t="s">
+      <c r="A247" s="15" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -5074,7 +5078,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="13" t="s">
+      <c r="A248" s="15" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -5082,7 +5086,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="13" t="s">
+      <c r="A249" s="15" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -5090,7 +5094,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="13" t="s">
+      <c r="A250" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -5098,7 +5102,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="13" t="s">
+      <c r="A251" s="15" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -5106,7 +5110,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="13" t="s">
+      <c r="A252" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -5114,7 +5118,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="13" t="s">
+      <c r="A253" s="15" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -5122,7 +5126,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="13" t="s">
+      <c r="A254" s="15" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -5130,7 +5134,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="13" t="s">
+      <c r="A255" s="15" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -5138,7 +5142,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="13" t="s">
+      <c r="A256" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -5146,7 +5150,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="13" t="s">
+      <c r="A257" s="15" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -5154,7 +5158,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="13" t="s">
+      <c r="A258" s="15" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -5162,7 +5166,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="13" t="s">
+      <c r="A259" s="15" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -5170,7 +5174,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="13" t="s">
+      <c r="A260" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -5178,7 +5182,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="13" t="s">
+      <c r="A261" s="15" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -5186,7 +5190,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="13" t="s">
+      <c r="A262" s="15" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -5194,7 +5198,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="13" t="s">
+      <c r="A263" s="15" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -5202,7 +5206,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="13" t="s">
+      <c r="A264" s="15" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -5210,7 +5214,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="13" t="s">
+      <c r="A265" s="15" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -5218,7 +5222,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="13" t="s">
+      <c r="A266" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -5226,7 +5230,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="13" t="s">
+      <c r="A267" s="15" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -5234,7 +5238,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="15" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -5242,7 +5246,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="13" t="s">
+      <c r="A269" s="15" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -5250,7 +5254,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="13" t="s">
+      <c r="A270" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -5258,7 +5262,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="13" t="s">
+      <c r="A271" s="15" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -5266,7 +5270,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="13" t="s">
+      <c r="A272" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -5274,7 +5278,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="15" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -5282,7 +5286,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="13" t="s">
+      <c r="A274" s="15" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -5290,7 +5294,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="15" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -5298,7 +5302,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="15" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -5306,7 +5310,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="13" t="s">
+      <c r="A277" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -5314,7 +5318,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="15" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -5322,7 +5326,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="15" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -5330,7 +5334,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="13" t="s">
+      <c r="A280" s="15" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -5338,7 +5342,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="13" t="s">
+      <c r="A281" s="15" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -5346,7 +5350,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="13" t="s">
+      <c r="A282" s="15" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -5354,7 +5358,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="13" t="s">
+      <c r="A283" s="15" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -5362,7 +5366,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="13" t="s">
+      <c r="A284" s="15" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -5370,7 +5374,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="13" t="s">
+      <c r="A285" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -5378,7 +5382,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="13" t="s">
+      <c r="A286" s="15" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -5386,7 +5390,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="13" t="s">
+      <c r="A287" s="15" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -5394,7 +5398,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="13" t="s">
+      <c r="A288" s="15" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -5402,7 +5406,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="13" t="s">
+      <c r="A289" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -5410,7 +5414,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="13" t="s">
+      <c r="A290" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -5418,7 +5422,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="13" t="s">
+      <c r="A291" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -5426,7 +5430,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="13" t="s">
+      <c r="A292" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -5434,7 +5438,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="13" t="s">
+      <c r="A293" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -5442,7 +5446,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="13" t="s">
+      <c r="A294" s="15" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -5450,7 +5454,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="13" t="s">
+      <c r="A295" s="15" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -5458,7 +5462,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="13" t="s">
+      <c r="A296" s="15" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -5466,7 +5470,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="13" t="s">
+      <c r="A297" s="15" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -5474,7 +5478,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="13" t="s">
+      <c r="A298" s="15" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -5482,7 +5486,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="13" t="s">
+      <c r="A299" s="15" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -5490,7 +5494,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="13" t="s">
+      <c r="A300" s="15" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -5498,7 +5502,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="15" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -5506,7 +5510,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="13" t="s">
+      <c r="A302" s="15" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -5514,7 +5518,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="13" t="s">
+      <c r="A303" s="15" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -5522,7 +5526,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="13" t="s">
+      <c r="A304" s="15" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -5530,7 +5534,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="13" t="s">
+      <c r="A305" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -5538,7 +5542,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="13" t="s">
+      <c r="A306" s="15" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -5546,7 +5550,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="13" t="s">
+      <c r="A307" s="15" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -5554,7 +5558,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="13" t="s">
+      <c r="A308" s="15" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -5562,7 +5566,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="13" t="s">
+      <c r="A309" s="15" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -5570,7 +5574,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="13" t="s">
+      <c r="A310" s="15" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -5578,7 +5582,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="13" t="s">
+      <c r="A311" s="15" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -5586,7 +5590,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="13" t="s">
+      <c r="A312" s="15" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -5594,7 +5598,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="13" t="s">
+      <c r="A313" s="15" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -5602,7 +5606,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="13" t="s">
+      <c r="A314" s="15" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -5610,7 +5614,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="13" t="s">
+      <c r="A315" s="15" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -5618,7 +5622,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="13" t="s">
+      <c r="A316" s="15" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -5626,7 +5630,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="13" t="s">
+      <c r="A317" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -5634,7 +5638,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="13" t="s">
+      <c r="A318" s="15" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -5642,7 +5646,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="13" t="s">
+      <c r="A319" s="15" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -5650,7 +5654,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="13" t="s">
+      <c r="A320" s="15" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -5658,7 +5662,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="13" t="s">
+      <c r="A321" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -5666,7 +5670,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="13" t="s">
+      <c r="A322" s="15" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -5674,7 +5678,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="13" t="s">
+      <c r="A323" s="15" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -5682,7 +5686,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="13" t="s">
+      <c r="A324" s="15" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -5690,7 +5694,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="13" t="s">
+      <c r="A325" s="15" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -5698,7 +5702,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="13" t="s">
+      <c r="A326" s="15" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -5706,7 +5710,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="13" t="s">
+      <c r="A327" s="15" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -5714,7 +5718,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="13" t="s">
+      <c r="A328" s="15" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -5722,7 +5726,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="13" t="s">
+      <c r="A329" s="15" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -5730,7 +5734,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="13" t="s">
+      <c r="A330" s="15" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -5738,7 +5742,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="13" t="s">
+      <c r="A331" s="15" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -5746,7 +5750,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="13" t="s">
+      <c r="A332" s="15" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -5754,7 +5758,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="13" t="s">
+      <c r="A333" s="15" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -5762,7 +5766,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="13" t="s">
+      <c r="A334" s="15" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -5770,7 +5774,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="13" t="s">
+      <c r="A335" s="15" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -5778,7 +5782,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="13" t="s">
+      <c r="A336" s="15" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -5786,7 +5790,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="13" t="s">
+      <c r="A337" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -5794,7 +5798,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="13" t="s">
+      <c r="A338" s="15" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -5802,7 +5806,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="13" t="s">
+      <c r="A339" s="15" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -5810,7 +5814,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="13" t="s">
+      <c r="A340" s="15" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -5818,7 +5822,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="13" t="s">
+      <c r="A341" s="15" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -5826,7 +5830,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="13" t="s">
+      <c r="A342" s="15" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -5834,7 +5838,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="13" t="s">
+      <c r="A343" s="15" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -5842,7 +5846,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="13" t="s">
+      <c r="A344" s="15" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -5850,7 +5854,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="13" t="s">
+      <c r="A345" s="15" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -5858,7 +5862,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="13" t="s">
+      <c r="A346" s="15" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -5866,7 +5870,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="13" t="s">
+      <c r="A347" s="15" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -5874,7 +5878,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="13" t="s">
+      <c r="A348" s="15" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -5882,7 +5886,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="13" t="s">
+      <c r="A349" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -5890,7 +5894,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="13" t="s">
+      <c r="A350" s="15" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -5898,7 +5902,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="13" t="s">
+      <c r="A351" s="15" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -5906,7 +5910,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="13" t="s">
+      <c r="A352" s="15" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -5914,7 +5918,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="13" t="s">
+      <c r="A353" s="15" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -5922,7 +5926,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="13" t="s">
+      <c r="A354" s="15" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -5930,7 +5934,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="13" t="s">
+      <c r="A355" s="15" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -5938,7 +5942,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="13" t="s">
+      <c r="A356" s="15" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -5946,7 +5950,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="13" t="s">
+      <c r="A357" s="15" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -5954,7 +5958,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="13" t="s">
+      <c r="A358" s="15" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -5962,7 +5966,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="13" t="s">
+      <c r="A359" s="15" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -5970,7 +5974,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="13" t="s">
+      <c r="A360" s="15" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -5978,7 +5982,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="13" t="s">
+      <c r="A361" s="15" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -5986,7 +5990,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="13" t="s">
+      <c r="A362" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -5994,7 +5998,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="13" t="s">
+      <c r="A363" s="15" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -6002,7 +6006,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="13" t="s">
+      <c r="A364" s="15" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -6010,7 +6014,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="13" t="s">
+      <c r="A365" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -6018,7 +6022,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="13" t="s">
+      <c r="A366" s="15" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -6026,7 +6030,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="13" t="s">
+      <c r="A367" s="15" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -6034,7 +6038,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="13" t="s">
+      <c r="A368" s="15" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -6042,7 +6046,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="13" t="s">
+      <c r="A369" s="15" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -6050,7 +6054,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="13" t="s">
+      <c r="A370" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -6058,7 +6062,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="13" t="s">
+      <c r="A371" s="15" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -6066,7 +6070,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="13" t="s">
+      <c r="A372" s="15" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -6074,7 +6078,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="13" t="s">
+      <c r="A373" s="15" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -6082,7 +6086,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="13" t="s">
+      <c r="A374" s="15" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -6090,7 +6094,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="13" t="s">
+      <c r="A375" s="15" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -6098,7 +6102,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="13" t="s">
+      <c r="A376" s="15" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -6106,7 +6110,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="13" t="s">
+      <c r="A377" s="15" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -6114,7 +6118,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="13" t="s">
+      <c r="A378" s="15" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -6122,7 +6126,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="13" t="s">
+      <c r="A379" s="15" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -6130,7 +6134,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="13" t="s">
+      <c r="A380" s="15" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -6138,7 +6142,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="13" t="s">
+      <c r="A381" s="15" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -6146,7 +6150,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="13" t="s">
+      <c r="A382" s="15" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -6154,7 +6158,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="13" t="s">
+      <c r="A383" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -6162,7 +6166,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="13" t="s">
+      <c r="A384" s="15" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -6170,7 +6174,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="13" t="s">
+      <c r="A385" s="15" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -6178,7 +6182,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="13" t="s">
+      <c r="A386" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -6186,7 +6190,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="13" t="s">
+      <c r="A387" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -6194,7 +6198,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="13" t="s">
+      <c r="A388" s="15" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -6202,7 +6206,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="13" t="s">
+      <c r="A389" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -6210,7 +6214,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="13" t="s">
+      <c r="A390" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -6218,7 +6222,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="13" t="s">
+      <c r="A391" s="15" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -6226,7 +6230,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="13" t="s">
+      <c r="A392" s="15" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -6234,7 +6238,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="13" t="s">
+      <c r="A393" s="15" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -6242,7 +6246,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="13" t="s">
+      <c r="A394" s="15" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -6250,7 +6254,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="13" t="s">
+      <c r="A395" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -6258,7 +6262,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="13" t="s">
+      <c r="A396" s="15" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -6266,7 +6270,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="13" t="s">
+      <c r="A397" s="15" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -6274,7 +6278,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="13" t="s">
+      <c r="A398" s="15" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -6282,7 +6286,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="13" t="s">
+      <c r="A399" s="15" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -6290,7 +6294,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="13" t="s">
+      <c r="A400" s="15" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -6298,7 +6302,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="13" t="s">
+      <c r="A401" s="15" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -6306,7 +6310,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="13" t="s">
+      <c r="A402" s="15" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -6314,7 +6318,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="13" t="s">
+      <c r="A403" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -6322,7 +6326,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="13" t="s">
+      <c r="A404" s="15" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -6330,7 +6334,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="13" t="s">
+      <c r="A405" s="15" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -6338,7 +6342,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="13" t="s">
+      <c r="A406" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -6346,7 +6350,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="13" t="s">
+      <c r="A407" s="15" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -6354,7 +6358,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="13" t="s">
+      <c r="A408" s="15" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -6362,7 +6366,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="13" t="s">
+      <c r="A409" s="15" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -6370,7 +6374,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="13" t="s">
+      <c r="A410" s="15" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -6378,7 +6382,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="13" t="s">
+      <c r="A411" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -6386,7 +6390,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="13" t="s">
+      <c r="A412" s="15" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -6394,7 +6398,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="13" t="s">
+      <c r="A413" s="15" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -6402,7 +6406,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="13" t="s">
+      <c r="A414" s="15" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -6410,7 +6414,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="13" t="s">
+      <c r="A415" s="15" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -6418,7 +6422,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="13" t="s">
+      <c r="A416" s="15" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -6426,7 +6430,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="13" t="s">
+      <c r="A417" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -6434,7 +6438,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="13" t="s">
+      <c r="A418" s="15" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -6442,7 +6446,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="13" t="s">
+      <c r="A419" s="15" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -6450,7 +6454,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="13" t="s">
+      <c r="A420" s="15" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -6458,7 +6462,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="13" t="s">
+      <c r="A421" s="15" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -6466,7 +6470,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="13" t="s">
+      <c r="A422" s="15" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -6474,7 +6478,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="13" t="s">
+      <c r="A423" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -6482,7 +6486,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="13" t="s">
+      <c r="A424" s="15" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -6490,7 +6494,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="13" t="s">
+      <c r="A425" s="15" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -6498,7 +6502,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="13" t="s">
+      <c r="A426" s="15" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -6506,7 +6510,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="13" t="s">
+      <c r="A427" s="15" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -6514,7 +6518,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="13" t="s">
+      <c r="A428" s="15" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -6522,7 +6526,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="13" t="s">
+      <c r="A429" s="15" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -6530,7 +6534,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="13" t="s">
+      <c r="A430" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -6538,7 +6542,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="13" t="s">
+      <c r="A431" s="15" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -6546,7 +6550,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="13" t="s">
+      <c r="A432" s="15" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -6554,7 +6558,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="13" t="s">
+      <c r="A433" s="15" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -6562,7 +6566,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="13" t="s">
+      <c r="A434" s="15" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -6570,7 +6574,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="13" t="s">
+      <c r="A435" s="15" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -6578,7 +6582,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="13" t="s">
+      <c r="A436" s="15" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -6586,7 +6590,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="13" t="s">
+      <c r="A437" s="15" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -6594,7 +6598,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="13" t="s">
+      <c r="A438" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -6602,7 +6606,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="13" t="s">
+      <c r="A439" s="15" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -6610,7 +6614,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="13" t="s">
+      <c r="A440" s="15" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -6618,7 +6622,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="13" t="s">
+      <c r="A441" s="15" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -6626,7 +6630,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="13" t="s">
+      <c r="A442" s="15" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -6634,7 +6638,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="13" t="s">
+      <c r="A443" s="15" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -6642,7 +6646,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="13" t="s">
+      <c r="A444" s="15" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -6650,7 +6654,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="13" t="s">
+      <c r="A445" s="15" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -6658,7 +6662,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="13" t="s">
+      <c r="A446" s="15" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -6666,7 +6670,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="13" t="s">
+      <c r="A447" s="15" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -6674,7 +6678,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="13" t="s">
+      <c r="A448" s="15" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -6682,7 +6686,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="13" t="s">
+      <c r="A449" s="15" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -6690,7 +6694,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="13" t="s">
+      <c r="A450" s="15" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -6698,7 +6702,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="13" t="s">
+      <c r="A451" s="15" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -6706,7 +6710,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="13" t="s">
+      <c r="A452" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -6714,7 +6718,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="13" t="s">
+      <c r="A453" s="15" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -6722,7 +6726,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="13" t="s">
+      <c r="A454" s="15" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -6730,7 +6734,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="13" t="s">
+      <c r="A455" s="15" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -6738,7 +6742,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="13" t="s">
+      <c r="A456" s="15" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -6746,7 +6750,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="13" t="s">
+      <c r="A457" s="15" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -6754,7 +6758,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="13" t="s">
+      <c r="A458" s="15" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -6762,7 +6766,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="13" t="s">
+      <c r="A459" s="15" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -6770,7 +6774,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="13" t="s">
+      <c r="A460" s="15" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -6778,7 +6782,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="13" t="s">
+      <c r="A461" s="15" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -6786,7 +6790,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="13" t="s">
+      <c r="A462" s="15" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -6794,7 +6798,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="13" t="s">
+      <c r="A463" s="15" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -6802,7 +6806,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="13" t="s">
+      <c r="A464" s="15" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -6810,7 +6814,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="13" t="s">
+      <c r="A465" s="15" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -6818,7 +6822,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="13" t="s">
+      <c r="A466" s="15" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -6826,7 +6830,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="13" t="s">
+      <c r="A467" s="15" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -6834,7 +6838,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="13" t="s">
+      <c r="A468" s="15" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -6842,7 +6846,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="13" t="s">
+      <c r="A469" s="15" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -6850,7 +6854,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="13" t="s">
+      <c r="A470" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -6858,7 +6862,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="13" t="s">
+      <c r="A471" s="15" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -6866,7 +6870,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="13" t="s">
+      <c r="A472" s="15" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -6874,7 +6878,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="13" t="s">
+      <c r="A473" s="15" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -6882,7 +6886,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="13" t="s">
+      <c r="A474" s="15" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -6890,7 +6894,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="13" t="s">
+      <c r="A475" s="15" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -6898,7 +6902,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="13" t="s">
+      <c r="A476" s="15" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -6906,7 +6910,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="13" t="s">
+      <c r="A477" s="15" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -6914,7 +6918,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="13" t="s">
+      <c r="A478" s="15" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -6922,7 +6926,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="13" t="s">
+      <c r="A479" s="15" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -6930,7 +6934,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="13" t="s">
+      <c r="A480" s="15" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -6938,7 +6942,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="13" t="s">
+      <c r="A481" s="15" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -6946,7 +6950,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="13" t="s">
+      <c r="A482" s="15" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -6954,7 +6958,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="13" t="s">
+      <c r="A483" s="15" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -6962,7 +6966,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="13" t="s">
+      <c r="A484" s="15" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -6970,7 +6974,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="13" t="s">
+      <c r="A485" s="15" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -6978,7 +6982,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="13" t="s">
+      <c r="A486" s="15" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -6986,7 +6990,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="13" t="s">
+      <c r="A487" s="15" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -6994,7 +6998,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="13" t="s">
+      <c r="A488" s="15" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -7002,7 +7006,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="13" t="s">
+      <c r="A489" s="15" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -7010,7 +7014,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="13" t="s">
+      <c r="A490" s="15" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -7018,7 +7022,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="13" t="s">
+      <c r="A491" s="15" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -7026,7 +7030,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="13" t="s">
+      <c r="A492" s="15" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -7034,7 +7038,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="13" t="s">
+      <c r="A493" s="15" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -7042,7 +7046,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="13" t="s">
+      <c r="A494" s="15" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -7050,7 +7054,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="13" t="s">
+      <c r="A495" s="15" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -7058,7 +7062,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="13" t="s">
+      <c r="A496" s="15" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -7066,7 +7070,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="13" t="s">
+      <c r="A497" s="15" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -7074,7 +7078,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="13" t="s">
+      <c r="A498" s="15" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -7082,7 +7086,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="13" t="s">
+      <c r="A499" s="15" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -7090,7 +7094,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="13" t="s">
+      <c r="A500" s="15" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -7098,7 +7102,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="13" t="s">
+      <c r="A501" s="15" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -7106,7 +7110,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="13" t="s">
+      <c r="A502" s="15" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -7114,7 +7118,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="13" t="s">
+      <c r="A503" s="15" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -7122,7 +7126,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="13" t="s">
+      <c r="A504" s="15" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -7130,7 +7134,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="13" t="s">
+      <c r="A505" s="15" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -7138,7 +7142,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="13" t="s">
+      <c r="A506" s="15" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -7146,7 +7150,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="13" t="s">
+      <c r="A507" s="15" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -7154,7 +7158,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="13" t="s">
+      <c r="A508" s="15" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -7162,7 +7166,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="13" t="s">
+      <c r="A509" s="15" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -7170,7 +7174,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="13" t="s">
+      <c r="A510" s="15" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -7178,7 +7182,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="13" t="s">
+      <c r="A511" s="15" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -7186,7 +7190,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="13" t="s">
+      <c r="A512" s="15" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -7194,7 +7198,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="13" t="s">
+      <c r="A513" s="15" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -7202,7 +7206,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="13" t="s">
+      <c r="A514" s="15" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -7210,7 +7214,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="13" t="s">
+      <c r="A515" s="15" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -7218,7 +7222,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="13" t="s">
+      <c r="A516" s="15" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -7226,7 +7230,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="13" t="s">
+      <c r="A517" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -7234,7 +7238,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="13" t="s">
+      <c r="A518" s="15" t="s">
         <v>517</v>
       </c>
       <c r="B518">
@@ -7242,7 +7246,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="13" t="s">
+      <c r="A519" s="15" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -7250,7 +7254,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="13" t="s">
+      <c r="A520" s="15" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -7258,7 +7262,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="13" t="s">
+      <c r="A521" s="15" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -7266,7 +7270,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="13" t="s">
+      <c r="A522" s="15" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -7274,7 +7278,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="13" t="s">
+      <c r="A523" s="15" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -7282,7 +7286,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="13" t="s">
+      <c r="A524" s="15" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -7290,7 +7294,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="13" t="s">
+      <c r="A525" s="15" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -7298,7 +7302,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="13" t="s">
+      <c r="A526" s="15" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -7306,7 +7310,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="13" t="s">
+      <c r="A527" s="15" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -7314,7 +7318,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="13" t="s">
+      <c r="A528" s="15" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -7322,7 +7326,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="13" t="s">
+      <c r="A529" s="15" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -7330,7 +7334,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="13" t="s">
+      <c r="A530" s="15" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -7338,7 +7342,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="13" t="s">
+      <c r="A531" s="15" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -7346,7 +7350,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="13" t="s">
+      <c r="A532" s="15" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -7354,7 +7358,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="13" t="s">
+      <c r="A533" s="15" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -7362,7 +7366,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="13" t="s">
+      <c r="A534" s="15" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -7370,7 +7374,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="13" t="s">
+      <c r="A535" s="15" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -7378,7 +7382,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="13" t="s">
+      <c r="A536" s="15" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -7386,7 +7390,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="13" t="s">
+      <c r="A537" s="15" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -7394,7 +7398,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="13" t="s">
+      <c r="A538" s="15" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -7402,7 +7406,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="13" t="s">
+      <c r="A539" s="15" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -7410,7 +7414,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="13" t="s">
+      <c r="A540" s="15" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -7418,7 +7422,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="13" t="s">
+      <c r="A541" s="15" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -7426,7 +7430,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="13" t="s">
+      <c r="A542" s="15" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -7434,7 +7438,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="13" t="s">
+      <c r="A543" s="15" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -7442,7 +7446,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="13" t="s">
+      <c r="A544" s="15" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -7450,7 +7454,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="13" t="s">
+      <c r="A545" s="15" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -7458,7 +7462,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="13" t="s">
+      <c r="A546" s="15" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -7466,7 +7470,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="13" t="s">
+      <c r="A547" s="15" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -7474,7 +7478,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="13" t="s">
+      <c r="A548" s="15" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -7482,7 +7486,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="13" t="s">
+      <c r="A549" s="15" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -7490,7 +7494,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="13" t="s">
+      <c r="A550" s="15" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -7498,7 +7502,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="13" t="s">
+      <c r="A551" s="15" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -7506,7 +7510,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="13" t="s">
+      <c r="A552" s="15" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -7514,7 +7518,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="13" t="s">
+      <c r="A553" s="15" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -7522,7 +7526,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="13" t="s">
+      <c r="A554" s="15" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -7530,7 +7534,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="13" t="s">
+      <c r="A555" s="15" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -7538,7 +7542,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="13" t="s">
+      <c r="A556" s="15" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -7546,7 +7550,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="13" t="s">
+      <c r="A557" s="15" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -7554,7 +7558,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="13" t="s">
+      <c r="A558" s="15" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -7562,7 +7566,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="13" t="s">
+      <c r="A559" s="15" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -7570,7 +7574,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="13" t="s">
+      <c r="A560" s="15" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -7578,7 +7582,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="13" t="s">
+      <c r="A561" s="15" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -7586,7 +7590,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="13" t="s">
+      <c r="A562" s="15" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -7594,7 +7598,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="13" t="s">
+      <c r="A563" s="15" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -7602,7 +7606,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="13" t="s">
+      <c r="A564" s="15" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -7610,7 +7614,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="13" t="s">
+      <c r="A565" s="15" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -7618,7 +7622,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="13" t="s">
+      <c r="A566" s="15" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -7626,7 +7630,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="13" t="s">
+      <c r="A567" s="15" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -7634,7 +7638,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="13" t="s">
+      <c r="A568" s="15" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -7642,7 +7646,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="13" t="s">
+      <c r="A569" s="15" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -7650,7 +7654,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="13" t="s">
+      <c r="A570" s="15" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -7658,7 +7662,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="13" t="s">
+      <c r="A571" s="15" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -7666,7 +7670,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="13" t="s">
+      <c r="A572" s="15" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -7674,7 +7678,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="13" t="s">
+      <c r="A573" s="15" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -7682,7 +7686,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="13" t="s">
+      <c r="A574" s="15" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -7690,7 +7694,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="13" t="s">
+      <c r="A575" s="15" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -7698,7 +7702,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="13" t="s">
+      <c r="A576" s="15" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -7706,7 +7710,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="13" t="s">
+      <c r="A577" s="15" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -7714,7 +7718,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="13" t="s">
+      <c r="A578" s="15" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -7722,7 +7726,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="13" t="s">
+      <c r="A579" s="15" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -7730,7 +7734,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="13" t="s">
+      <c r="A580" s="15" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -7738,7 +7742,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="13" t="s">
+      <c r="A581" s="15" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -7746,7 +7750,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="13" t="s">
+      <c r="A582" s="15" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -7754,7 +7758,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="13" t="s">
+      <c r="A583" s="15" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -7762,7 +7766,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="13" t="s">
+      <c r="A584" s="15" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -7770,7 +7774,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="13" t="s">
+      <c r="A585" s="15" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -7778,7 +7782,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="13" t="s">
+      <c r="A586" s="15" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -7786,7 +7790,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="13" t="s">
+      <c r="A587" s="15" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -7794,7 +7798,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="13" t="s">
+      <c r="A588" s="15" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -7802,7 +7806,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="13" t="s">
+      <c r="A589" s="15" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -7810,7 +7814,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="13" t="s">
+      <c r="A590" s="15" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -7818,7 +7822,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="13" t="s">
+      <c r="A591" s="15" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -7826,7 +7830,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="13" t="s">
+      <c r="A592" s="15" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -7834,7 +7838,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="13" t="s">
+      <c r="A593" s="15" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -7842,7 +7846,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="13" t="s">
+      <c r="A594" s="15" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -7850,7 +7854,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="13" t="s">
+      <c r="A595" s="15" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -7858,7 +7862,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="13" t="s">
+      <c r="A596" s="15" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -7866,7 +7870,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="13" t="s">
+      <c r="A597" s="15" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -7874,7 +7878,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="13" t="s">
+      <c r="A598" s="15" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -7882,7 +7886,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="13" t="s">
+      <c r="A599" s="15" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -7890,7 +7894,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="13" t="s">
+      <c r="A600" s="15" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -7898,7 +7902,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="13" t="s">
+      <c r="A601" s="15" t="s">
         <v>600</v>
       </c>
       <c r="B601">
@@ -7906,7 +7910,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="13" t="s">
+      <c r="A602" s="15" t="s">
         <v>601</v>
       </c>
       <c r="B602">
@@ -7914,7 +7918,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="13" t="s">
+      <c r="A603" s="15" t="s">
         <v>602</v>
       </c>
       <c r="B603">
@@ -7922,7 +7926,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="13" t="s">
+      <c r="A604" s="15" t="s">
         <v>603</v>
       </c>
       <c r="B604">
@@ -7930,7 +7934,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="13" t="s">
+      <c r="A605" s="15" t="s">
         <v>604</v>
       </c>
       <c r="B605">
@@ -7938,7 +7942,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="13" t="s">
+      <c r="A606" s="15" t="s">
         <v>605</v>
       </c>
       <c r="B606">
@@ -7946,7 +7950,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="13" t="s">
+      <c r="A607" s="15" t="s">
         <v>606</v>
       </c>
       <c r="B607">
@@ -7954,7 +7958,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="13" t="s">
+      <c r="A608" s="15" t="s">
         <v>607</v>
       </c>
       <c r="B608">
@@ -7962,7 +7966,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="13" t="s">
+      <c r="A609" s="15" t="s">
         <v>608</v>
       </c>
       <c r="B609">
@@ -7970,7 +7974,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="13" t="s">
+      <c r="A610" s="15" t="s">
         <v>609</v>
       </c>
       <c r="B610">
@@ -7978,7 +7982,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="13" t="s">
+      <c r="A611" s="15" t="s">
         <v>610</v>
       </c>
       <c r="B611">
@@ -7986,7 +7990,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="13" t="s">
+      <c r="A612" s="15" t="s">
         <v>611</v>
       </c>
       <c r="B612">
@@ -7994,7 +7998,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="13" t="s">
+      <c r="A613" s="15" t="s">
         <v>612</v>
       </c>
       <c r="B613">
@@ -8002,7 +8006,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="13" t="s">
+      <c r="A614" s="15" t="s">
         <v>613</v>
       </c>
       <c r="B614">
@@ -8010,7 +8014,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="13" t="s">
+      <c r="A615" s="15" t="s">
         <v>614</v>
       </c>
       <c r="B615">
@@ -8018,7 +8022,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="13" t="s">
+      <c r="A616" s="15" t="s">
         <v>615</v>
       </c>
       <c r="B616">
@@ -8026,7 +8030,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="13" t="s">
+      <c r="A617" s="15" t="s">
         <v>616</v>
       </c>
       <c r="B617">
@@ -8034,7 +8038,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="13" t="s">
+      <c r="A618" s="15" t="s">
         <v>617</v>
       </c>
       <c r="B618">
@@ -8042,7 +8046,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="13" t="s">
+      <c r="A619" s="15" t="s">
         <v>618</v>
       </c>
       <c r="B619">
@@ -8050,7 +8054,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="13" t="s">
+      <c r="A620" s="15" t="s">
         <v>619</v>
       </c>
       <c r="B620">
@@ -8058,7 +8062,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="13" t="s">
+      <c r="A621" s="15" t="s">
         <v>620</v>
       </c>
       <c r="B621">
@@ -8066,7 +8070,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="13" t="s">
+      <c r="A622" s="15" t="s">
         <v>621</v>
       </c>
       <c r="B622">
@@ -8074,7 +8078,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="13" t="s">
+      <c r="A623" s="15" t="s">
         <v>622</v>
       </c>
       <c r="B623">
@@ -8082,7 +8086,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="13" t="s">
+      <c r="A624" s="15" t="s">
         <v>623</v>
       </c>
       <c r="B624">
@@ -8090,7 +8094,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="13" t="s">
+      <c r="A625" s="15" t="s">
         <v>624</v>
       </c>
       <c r="B625">
@@ -8098,7 +8102,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="13" t="s">
+      <c r="A626" s="15" t="s">
         <v>625</v>
       </c>
       <c r="B626">
@@ -8106,7 +8110,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="13" t="s">
+      <c r="A627" s="15" t="s">
         <v>626</v>
       </c>
       <c r="B627">
@@ -8114,7 +8118,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="13" t="s">
+      <c r="A628" s="15" t="s">
         <v>627</v>
       </c>
       <c r="B628">
@@ -8122,7 +8126,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="13" t="s">
+      <c r="A629" s="15" t="s">
         <v>628</v>
       </c>
       <c r="B629">
@@ -8130,7 +8134,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="13" t="s">
+      <c r="A630" s="15" t="s">
         <v>629</v>
       </c>
       <c r="B630">
@@ -8138,7 +8142,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="13" t="s">
+      <c r="A631" s="15" t="s">
         <v>630</v>
       </c>
       <c r="B631">
@@ -8146,7 +8150,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="13" t="s">
+      <c r="A632" s="15" t="s">
         <v>631</v>
       </c>
       <c r="B632">
@@ -8154,7 +8158,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="13" t="s">
+      <c r="A633" s="15" t="s">
         <v>632</v>
       </c>
       <c r="B633">
@@ -8162,7 +8166,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="13" t="s">
+      <c r="A634" s="15" t="s">
         <v>633</v>
       </c>
       <c r="B634">
@@ -8170,7 +8174,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="13" t="s">
+      <c r="A635" s="15" t="s">
         <v>634</v>
       </c>
       <c r="B635">
@@ -8178,7 +8182,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="13" t="s">
+      <c r="A636" s="15" t="s">
         <v>635</v>
       </c>
       <c r="B636">
@@ -8186,7 +8190,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="13" t="s">
+      <c r="A637" s="15" t="s">
         <v>636</v>
       </c>
       <c r="B637">
@@ -8194,7 +8198,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="13" t="s">
+      <c r="A638" s="15" t="s">
         <v>637</v>
       </c>
       <c r="B638">
@@ -8202,7 +8206,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="13" t="s">
+      <c r="A639" s="15" t="s">
         <v>638</v>
       </c>
       <c r="B639">
@@ -8210,7 +8214,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="13" t="s">
+      <c r="A640" s="15" t="s">
         <v>639</v>
       </c>
       <c r="B640">
@@ -8218,7 +8222,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="13" t="s">
+      <c r="A641" s="15" t="s">
         <v>640</v>
       </c>
       <c r="B641">
@@ -8226,7 +8230,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="13" t="s">
+      <c r="A642" s="15" t="s">
         <v>641</v>
       </c>
       <c r="B642">
@@ -8234,7 +8238,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="13" t="s">
+      <c r="A643" s="15" t="s">
         <v>642</v>
       </c>
       <c r="B643">
@@ -8242,7 +8246,7 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="13" t="s">
+      <c r="A644" s="15" t="s">
         <v>643</v>
       </c>
       <c r="B644">
@@ -8250,7 +8254,7 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="13" t="s">
+      <c r="A645" s="15" t="s">
         <v>644</v>
       </c>
       <c r="B645">
@@ -8258,7 +8262,7 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="13" t="s">
+      <c r="A646" s="15" t="s">
         <v>645</v>
       </c>
       <c r="B646">
@@ -8266,7 +8270,7 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="13" t="s">
+      <c r="A647" s="15" t="s">
         <v>646</v>
       </c>
       <c r="B647">
@@ -8274,7 +8278,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="13" t="s">
+      <c r="A648" s="15" t="s">
         <v>647</v>
       </c>
       <c r="B648">
@@ -8282,7 +8286,7 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="13" t="s">
+      <c r="A649" s="15" t="s">
         <v>648</v>
       </c>
       <c r="B649">
@@ -8290,7 +8294,7 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="13" t="s">
+      <c r="A650" s="15" t="s">
         <v>649</v>
       </c>
       <c r="B650">
@@ -8298,7 +8302,7 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="13" t="s">
+      <c r="A651" s="15" t="s">
         <v>650</v>
       </c>
       <c r="B651">
@@ -8306,7 +8310,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="13" t="s">
+      <c r="A652" s="15" t="s">
         <v>651</v>
       </c>
       <c r="B652">
@@ -8314,7 +8318,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="13" t="s">
+      <c r="A653" s="15" t="s">
         <v>652</v>
       </c>
       <c r="B653">
@@ -8322,7 +8326,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="13" t="s">
+      <c r="A654" s="15" t="s">
         <v>653</v>
       </c>
       <c r="B654">
@@ -8330,7 +8334,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="13" t="s">
+      <c r="A655" s="15" t="s">
         <v>654</v>
       </c>
       <c r="B655">
@@ -8338,7 +8342,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="13" t="s">
+      <c r="A656" s="15" t="s">
         <v>655</v>
       </c>
       <c r="B656">
@@ -8346,7 +8350,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="13" t="s">
+      <c r="A657" s="15" t="s">
         <v>656</v>
       </c>
       <c r="B657">
@@ -8354,7 +8358,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="13" t="s">
+      <c r="A658" s="15" t="s">
         <v>657</v>
       </c>
       <c r="B658">
@@ -8362,7 +8366,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="13" t="s">
+      <c r="A659" s="15" t="s">
         <v>658</v>
       </c>
       <c r="B659">
@@ -8370,7 +8374,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="13" t="s">
+      <c r="A660" s="15" t="s">
         <v>659</v>
       </c>
       <c r="B660">
@@ -8378,7 +8382,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="13" t="s">
+      <c r="A661" s="15" t="s">
         <v>660</v>
       </c>
       <c r="B661">
@@ -8386,7 +8390,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="13" t="s">
+      <c r="A662" s="15" t="s">
         <v>661</v>
       </c>
       <c r="B662">
@@ -8394,7 +8398,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="13" t="s">
+      <c r="A663" s="15" t="s">
         <v>662</v>
       </c>
       <c r="B663">
@@ -8402,7 +8406,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="13" t="s">
+      <c r="A664" s="15" t="s">
         <v>663</v>
       </c>
       <c r="B664">
@@ -8410,7 +8414,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="13" t="s">
+      <c r="A665" s="15" t="s">
         <v>664</v>
       </c>
       <c r="B665">
@@ -8418,7 +8422,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="13" t="s">
+      <c r="A666" s="15" t="s">
         <v>665</v>
       </c>
       <c r="B666">
@@ -8426,7 +8430,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="13" t="s">
+      <c r="A667" s="15" t="s">
         <v>666</v>
       </c>
       <c r="B667">
@@ -8434,7 +8438,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="13" t="s">
+      <c r="A668" s="15" t="s">
         <v>667</v>
       </c>
       <c r="B668">
@@ -8442,7 +8446,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="13" t="s">
+      <c r="A669" s="15" t="s">
         <v>668</v>
       </c>
       <c r="B669">
@@ -8450,7 +8454,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="13" t="s">
+      <c r="A670" s="15" t="s">
         <v>669</v>
       </c>
       <c r="B670">
@@ -8458,7 +8462,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="13" t="s">
+      <c r="A671" s="15" t="s">
         <v>670</v>
       </c>
       <c r="B671">
@@ -8466,7 +8470,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="13" t="s">
+      <c r="A672" s="15" t="s">
         <v>671</v>
       </c>
       <c r="B672">
@@ -8474,7 +8478,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="13" t="s">
+      <c r="A673" s="15" t="s">
         <v>672</v>
       </c>
       <c r="B673">
@@ -8482,7 +8486,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="13" t="s">
+      <c r="A674" s="15" t="s">
         <v>673</v>
       </c>
       <c r="B674">
@@ -8490,7 +8494,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="13" t="s">
+      <c r="A675" s="15" t="s">
         <v>674</v>
       </c>
       <c r="B675">
@@ -8498,7 +8502,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="13" t="s">
+      <c r="A676" s="15" t="s">
         <v>675</v>
       </c>
       <c r="B676">
@@ -8506,7 +8510,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="13" t="s">
+      <c r="A677" s="15" t="s">
         <v>676</v>
       </c>
       <c r="B677">
@@ -8514,7 +8518,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="13" t="s">
+      <c r="A678" s="15" t="s">
         <v>677</v>
       </c>
       <c r="B678">
@@ -8522,7 +8526,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="13" t="s">
+      <c r="A679" s="15" t="s">
         <v>678</v>
       </c>
       <c r="B679">
@@ -8530,7 +8534,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="13" t="s">
+      <c r="A680" s="15" t="s">
         <v>679</v>
       </c>
       <c r="B680">
@@ -8538,7 +8542,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="13" t="s">
+      <c r="A681" s="15" t="s">
         <v>680</v>
       </c>
       <c r="B681">
@@ -8546,7 +8550,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="13" t="s">
+      <c r="A682" s="15" t="s">
         <v>681</v>
       </c>
       <c r="B682">
@@ -8554,7 +8558,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="13" t="s">
+      <c r="A683" s="15" t="s">
         <v>682</v>
       </c>
       <c r="B683">
@@ -8562,7 +8566,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="13" t="s">
+      <c r="A684" s="15" t="s">
         <v>683</v>
       </c>
       <c r="B684">
@@ -8570,7 +8574,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="13" t="s">
+      <c r="A685" s="15" t="s">
         <v>684</v>
       </c>
       <c r="B685">
@@ -8578,7 +8582,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="13" t="s">
+      <c r="A686" s="15" t="s">
         <v>685</v>
       </c>
       <c r="B686">
@@ -8586,7 +8590,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="13" t="s">
+      <c r="A687" s="15" t="s">
         <v>686</v>
       </c>
       <c r="B687">
@@ -8594,7 +8598,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="13" t="s">
+      <c r="A688" s="15" t="s">
         <v>687</v>
       </c>
       <c r="B688">
@@ -8602,7 +8606,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="13" t="s">
+      <c r="A689" s="15" t="s">
         <v>688</v>
       </c>
       <c r="B689">
@@ -8610,7 +8614,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="13" t="s">
+      <c r="A690" s="15" t="s">
         <v>689</v>
       </c>
       <c r="B690">
@@ -8618,7 +8622,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="13" t="s">
+      <c r="A691" s="15" t="s">
         <v>690</v>
       </c>
       <c r="B691">
@@ -8626,7 +8630,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="13" t="s">
+      <c r="A692" s="15" t="s">
         <v>691</v>
       </c>
       <c r="B692">
@@ -8634,7 +8638,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="13" t="s">
+      <c r="A693" s="15" t="s">
         <v>692</v>
       </c>
       <c r="B693">
@@ -8642,7 +8646,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="13" t="s">
+      <c r="A694" s="15" t="s">
         <v>693</v>
       </c>
       <c r="B694">
@@ -8650,7 +8654,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="13" t="s">
+      <c r="A695" s="15" t="s">
         <v>694</v>
       </c>
       <c r="B695">
@@ -8658,7 +8662,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="13" t="s">
+      <c r="A696" s="15" t="s">
         <v>695</v>
       </c>
       <c r="B696">
@@ -8666,7 +8670,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="13" t="s">
+      <c r="A697" s="15" t="s">
         <v>696</v>
       </c>
       <c r="B697">
@@ -8674,7 +8678,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="13" t="s">
+      <c r="A698" s="15" t="s">
         <v>697</v>
       </c>
       <c r="B698">
@@ -8682,7 +8686,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="13" t="s">
+      <c r="A699" s="15" t="s">
         <v>698</v>
       </c>
       <c r="B699">
@@ -8690,7 +8694,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="13" t="s">
+      <c r="A700" s="15" t="s">
         <v>699</v>
       </c>
       <c r="B700">
@@ -8698,7 +8702,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="13" t="s">
+      <c r="A701" s="15" t="s">
         <v>700</v>
       </c>
       <c r="B701">
@@ -8706,7 +8710,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="13" t="s">
+      <c r="A702" s="15" t="s">
         <v>701</v>
       </c>
       <c r="B702">
@@ -8714,7 +8718,7 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="13" t="s">
+      <c r="A703" s="15" t="s">
         <v>702</v>
       </c>
       <c r="B703">
@@ -8722,7 +8726,7 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="13" t="s">
+      <c r="A704" s="15" t="s">
         <v>703</v>
       </c>
       <c r="B704">
@@ -8730,7 +8734,7 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="13" t="s">
+      <c r="A705" s="15" t="s">
         <v>704</v>
       </c>
       <c r="B705">
@@ -8738,7 +8742,7 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="13" t="s">
+      <c r="A706" s="15" t="s">
         <v>705</v>
       </c>
       <c r="B706">
@@ -8746,7 +8750,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="13" t="s">
+      <c r="A707" s="15" t="s">
         <v>706</v>
       </c>
       <c r="B707">
@@ -8754,7 +8758,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="13" t="s">
+      <c r="A708" s="15" t="s">
         <v>707</v>
       </c>
       <c r="B708">
@@ -8762,7 +8766,7 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="13" t="s">
+      <c r="A709" s="15" t="s">
         <v>708</v>
       </c>
       <c r="B709">
@@ -8770,7 +8774,7 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="13" t="s">
+      <c r="A710" s="15" t="s">
         <v>709</v>
       </c>
       <c r="B710">
@@ -8778,7 +8782,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="13" t="s">
+      <c r="A711" s="15" t="s">
         <v>710</v>
       </c>
       <c r="B711">
@@ -8786,7 +8790,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="13" t="s">
+      <c r="A712" s="15" t="s">
         <v>711</v>
       </c>
       <c r="B712">
@@ -8794,7 +8798,7 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="13" t="s">
+      <c r="A713" s="15" t="s">
         <v>712</v>
       </c>
       <c r="B713">
@@ -8802,7 +8806,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="13" t="s">
+      <c r="A714" s="15" t="s">
         <v>713</v>
       </c>
       <c r="B714">
@@ -8810,7 +8814,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="13" t="s">
+      <c r="A715" s="15" t="s">
         <v>714</v>
       </c>
       <c r="B715">
@@ -8818,7 +8822,7 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="13" t="s">
+      <c r="A716" s="15" t="s">
         <v>715</v>
       </c>
       <c r="B716">
@@ -8826,7 +8830,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="13" t="s">
+      <c r="A717" s="15" t="s">
         <v>716</v>
       </c>
       <c r="B717">
@@ -8834,7 +8838,7 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="13" t="s">
+      <c r="A718" s="15" t="s">
         <v>717</v>
       </c>
       <c r="B718">
@@ -8842,7 +8846,7 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="13" t="s">
+      <c r="A719" s="15" t="s">
         <v>718</v>
       </c>
       <c r="B719">
@@ -8850,7 +8854,7 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="13" t="s">
+      <c r="A720" s="15" t="s">
         <v>719</v>
       </c>
       <c r="B720">
@@ -8858,7 +8862,7 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="13" t="s">
+      <c r="A721" s="15" t="s">
         <v>720</v>
       </c>
       <c r="B721">
@@ -8866,7 +8870,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="13" t="s">
+      <c r="A722" s="15" t="s">
         <v>721</v>
       </c>
       <c r="B722">
@@ -8874,7 +8878,7 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="13" t="s">
+      <c r="A723" s="15" t="s">
         <v>722</v>
       </c>
       <c r="B723">
@@ -8882,7 +8886,7 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="13" t="s">
+      <c r="A724" s="15" t="s">
         <v>723</v>
       </c>
       <c r="B724">
@@ -8890,7 +8894,7 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="13" t="s">
+      <c r="A725" s="15" t="s">
         <v>724</v>
       </c>
       <c r="B725">
@@ -8898,7 +8902,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="13" t="s">
+      <c r="A726" s="15" t="s">
         <v>725</v>
       </c>
       <c r="B726">
@@ -8906,7 +8910,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="13" t="s">
+      <c r="A727" s="15" t="s">
         <v>726</v>
       </c>
       <c r="B727">
@@ -8914,7 +8918,7 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="13" t="s">
+      <c r="A728" s="15" t="s">
         <v>727</v>
       </c>
       <c r="B728">
@@ -8922,7 +8926,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="13" t="s">
+      <c r="A729" s="15" t="s">
         <v>728</v>
       </c>
       <c r="B729">
@@ -8930,7 +8934,7 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="13" t="s">
+      <c r="A730" s="15" t="s">
         <v>729</v>
       </c>
       <c r="B730">
@@ -8938,7 +8942,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="13" t="s">
+      <c r="A731" s="15" t="s">
         <v>730</v>
       </c>
       <c r="B731">
@@ -8946,7 +8950,7 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="13" t="s">
+      <c r="A732" s="15" t="s">
         <v>731</v>
       </c>
       <c r="B732">
@@ -8954,7 +8958,7 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="13" t="s">
+      <c r="A733" s="15" t="s">
         <v>732</v>
       </c>
       <c r="B733">
@@ -8962,7 +8966,7 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="13" t="s">
+      <c r="A734" s="15" t="s">
         <v>733</v>
       </c>
       <c r="B734">
@@ -8970,7 +8974,7 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="13" t="s">
+      <c r="A735" s="15" t="s">
         <v>734</v>
       </c>
       <c r="B735">
@@ -8978,7 +8982,7 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="13" t="s">
+      <c r="A736" s="15" t="s">
         <v>735</v>
       </c>
       <c r="B736">
@@ -8986,7 +8990,7 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="13" t="s">
+      <c r="A737" s="15" t="s">
         <v>736</v>
       </c>
       <c r="B737">
@@ -8994,7 +8998,7 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="13" t="s">
+      <c r="A738" s="15" t="s">
         <v>737</v>
       </c>
       <c r="B738">
@@ -9002,7 +9006,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="13" t="s">
+      <c r="A739" s="15" t="s">
         <v>738</v>
       </c>
       <c r="B739">
@@ -9010,7 +9014,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="13" t="s">
+      <c r="A740" s="15" t="s">
         <v>739</v>
       </c>
       <c r="B740">
@@ -9018,7 +9022,7 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="13" t="s">
+      <c r="A741" s="15" t="s">
         <v>740</v>
       </c>
       <c r="B741">
@@ -9026,7 +9030,7 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="13" t="s">
+      <c r="A742" s="15" t="s">
         <v>741</v>
       </c>
       <c r="B742">
@@ -9034,7 +9038,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="13" t="s">
+      <c r="A743" s="15" t="s">
         <v>742</v>
       </c>
       <c r="B743">
@@ -9042,7 +9046,7 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="13" t="s">
+      <c r="A744" s="15" t="s">
         <v>743</v>
       </c>
       <c r="B744">
@@ -9050,7 +9054,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="13" t="s">
+      <c r="A745" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B745">
@@ -9058,7 +9062,7 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="13" t="s">
+      <c r="A746" s="15" t="s">
         <v>745</v>
       </c>
       <c r="B746">
@@ -9066,7 +9070,7 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="13" t="s">
+      <c r="A747" s="15" t="s">
         <v>746</v>
       </c>
       <c r="B747">
@@ -9074,7 +9078,7 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="13" t="s">
+      <c r="A748" s="15" t="s">
         <v>747</v>
       </c>
       <c r="B748">
@@ -9082,7 +9086,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="13" t="s">
+      <c r="A749" s="15" t="s">
         <v>748</v>
       </c>
       <c r="B749">
@@ -9090,7 +9094,7 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="13" t="s">
+      <c r="A750" s="15" t="s">
         <v>749</v>
       </c>
       <c r="B750">
@@ -9098,7 +9102,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="13" t="s">
+      <c r="A751" s="15" t="s">
         <v>750</v>
       </c>
       <c r="B751">
@@ -9106,7 +9110,7 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="13" t="s">
+      <c r="A752" s="15" t="s">
         <v>751</v>
       </c>
       <c r="B752">
@@ -9114,7 +9118,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="13" t="s">
+      <c r="A753" s="15" t="s">
         <v>752</v>
       </c>
       <c r="B753">
@@ -9122,7 +9126,7 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="13" t="s">
+      <c r="A754" s="15" t="s">
         <v>753</v>
       </c>
       <c r="B754">
@@ -9130,7 +9134,7 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="13" t="s">
+      <c r="A755" s="15" t="s">
         <v>754</v>
       </c>
       <c r="B755">
@@ -9138,7 +9142,7 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="13" t="s">
+      <c r="A756" s="15" t="s">
         <v>755</v>
       </c>
       <c r="B756">
@@ -9146,7 +9150,7 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="13" t="s">
+      <c r="A757" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B757">
@@ -9154,7 +9158,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="13" t="s">
+      <c r="A758" s="15" t="s">
         <v>757</v>
       </c>
       <c r="B758">
@@ -9162,7 +9166,7 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="13" t="s">
+      <c r="A759" s="15" t="s">
         <v>758</v>
       </c>
       <c r="B759">
@@ -9170,7 +9174,7 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="13" t="s">
+      <c r="A760" s="15" t="s">
         <v>759</v>
       </c>
       <c r="B760">
@@ -9178,7 +9182,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="13" t="s">
+      <c r="A761" s="15" t="s">
         <v>760</v>
       </c>
       <c r="B761">
@@ -9186,7 +9190,7 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="13" t="s">
+      <c r="A762" s="15" t="s">
         <v>761</v>
       </c>
       <c r="B762">
@@ -9194,7 +9198,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="13" t="s">
+      <c r="A763" s="15" t="s">
         <v>762</v>
       </c>
       <c r="B763">
@@ -9202,7 +9206,7 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="13" t="s">
+      <c r="A764" s="15" t="s">
         <v>763</v>
       </c>
       <c r="B764">
@@ -9210,7 +9214,7 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="13" t="s">
+      <c r="A765" s="15" t="s">
         <v>764</v>
       </c>
       <c r="B765">
@@ -9218,7 +9222,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="13" t="s">
+      <c r="A766" s="15" t="s">
         <v>765</v>
       </c>
       <c r="B766">
@@ -9226,7 +9230,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="13" t="s">
+      <c r="A767" s="15" t="s">
         <v>766</v>
       </c>
       <c r="B767">
@@ -9234,7 +9238,7 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="13" t="s">
+      <c r="A768" s="15" t="s">
         <v>767</v>
       </c>
       <c r="B768">
@@ -9242,7 +9246,7 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="13" t="s">
+      <c r="A769" s="15" t="s">
         <v>768</v>
       </c>
       <c r="B769">
@@ -9250,7 +9254,7 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="13" t="s">
+      <c r="A770" s="15" t="s">
         <v>769</v>
       </c>
       <c r="B770">
@@ -9258,7 +9262,7 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="13" t="s">
+      <c r="A771" s="15" t="s">
         <v>770</v>
       </c>
       <c r="B771">
@@ -9266,7 +9270,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="13" t="s">
+      <c r="A772" s="15" t="s">
         <v>771</v>
       </c>
       <c r="B772">
@@ -9274,7 +9278,7 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="13" t="s">
+      <c r="A773" s="15" t="s">
         <v>772</v>
       </c>
       <c r="B773">
@@ -9282,7 +9286,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="13" t="s">
+      <c r="A774" s="15" t="s">
         <v>773</v>
       </c>
       <c r="B774">
@@ -9290,7 +9294,7 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="13" t="s">
+      <c r="A775" s="15" t="s">
         <v>774</v>
       </c>
       <c r="B775">
@@ -9298,7 +9302,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="13" t="s">
+      <c r="A776" s="15" t="s">
         <v>775</v>
       </c>
       <c r="B776">
@@ -9306,7 +9310,7 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="13" t="s">
+      <c r="A777" s="15" t="s">
         <v>776</v>
       </c>
       <c r="B777">
@@ -9314,7 +9318,7 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="13" t="s">
+      <c r="A778" s="15" t="s">
         <v>777</v>
       </c>
       <c r="B778">
@@ -9322,7 +9326,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="13" t="s">
+      <c r="A779" s="15" t="s">
         <v>778</v>
       </c>
       <c r="B779">
@@ -9330,7 +9334,7 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="13" t="s">
+      <c r="A780" s="15" t="s">
         <v>779</v>
       </c>
       <c r="B780">
@@ -9338,7 +9342,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="13" t="s">
+      <c r="A781" s="15" t="s">
         <v>780</v>
       </c>
       <c r="B781">
@@ -9346,7 +9350,7 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="13" t="s">
+      <c r="A782" s="15" t="s">
         <v>781</v>
       </c>
       <c r="B782">
@@ -9354,7 +9358,7 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="13" t="s">
+      <c r="A783" s="15" t="s">
         <v>782</v>
       </c>
       <c r="B783">
@@ -9362,7 +9366,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="13" t="s">
+      <c r="A784" s="15" t="s">
         <v>783</v>
       </c>
       <c r="B784">
@@ -9370,7 +9374,7 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="13" t="s">
+      <c r="A785" s="15" t="s">
         <v>784</v>
       </c>
       <c r="B785">
@@ -9378,7 +9382,7 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="13" t="s">
+      <c r="A786" s="15" t="s">
         <v>785</v>
       </c>
       <c r="B786">
@@ -9386,7 +9390,7 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="13" t="s">
+      <c r="A787" s="15" t="s">
         <v>786</v>
       </c>
       <c r="B787">
@@ -9394,7 +9398,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="13" t="s">
+      <c r="A788" s="15" t="s">
         <v>787</v>
       </c>
       <c r="B788">
@@ -9402,7 +9406,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="13" t="s">
+      <c r="A789" s="15" t="s">
         <v>788</v>
       </c>
       <c r="B789">
@@ -9410,7 +9414,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="13" t="s">
+      <c r="A790" s="15" t="s">
         <v>789</v>
       </c>
       <c r="B790">
@@ -9418,7 +9422,7 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="13" t="s">
+      <c r="A791" s="15" t="s">
         <v>790</v>
       </c>
       <c r="B791">
@@ -9426,7 +9430,7 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="13" t="s">
+      <c r="A792" s="15" t="s">
         <v>791</v>
       </c>
       <c r="B792">
@@ -9434,7 +9438,7 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="13" t="s">
+      <c r="A793" s="15" t="s">
         <v>792</v>
       </c>
       <c r="B793">
@@ -9442,7 +9446,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="13" t="s">
+      <c r="A794" s="15" t="s">
         <v>793</v>
       </c>
       <c r="B794">
@@ -9450,7 +9454,7 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="13" t="s">
+      <c r="A795" s="15" t="s">
         <v>794</v>
       </c>
       <c r="B795">
@@ -9458,7 +9462,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="13" t="s">
+      <c r="A796" s="15" t="s">
         <v>795</v>
       </c>
       <c r="B796">
@@ -9466,7 +9470,7 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="13" t="s">
+      <c r="A797" s="15" t="s">
         <v>796</v>
       </c>
       <c r="B797">
@@ -9474,7 +9478,7 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="13" t="s">
+      <c r="A798" s="15" t="s">
         <v>797</v>
       </c>
       <c r="B798">
@@ -9482,7 +9486,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="13" t="s">
+      <c r="A799" s="15" t="s">
         <v>798</v>
       </c>
       <c r="B799">
@@ -9490,7 +9494,7 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="13" t="s">
+      <c r="A800" s="15" t="s">
         <v>799</v>
       </c>
       <c r="B800">
@@ -9498,7 +9502,7 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="13" t="s">
+      <c r="A801" s="15" t="s">
         <v>800</v>
       </c>
       <c r="B801">
@@ -9506,7 +9510,7 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="13" t="s">
+      <c r="A802" s="15" t="s">
         <v>801</v>
       </c>
       <c r="B802">
@@ -9514,7 +9518,7 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="13" t="s">
+      <c r="A803" s="15" t="s">
         <v>802</v>
       </c>
       <c r="B803">
@@ -9522,7 +9526,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="13" t="s">
+      <c r="A804" s="15" t="s">
         <v>803</v>
       </c>
       <c r="B804">
@@ -9530,7 +9534,7 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="13" t="s">
+      <c r="A805" s="15" t="s">
         <v>804</v>
       </c>
       <c r="B805">
@@ -9538,7 +9542,7 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="13" t="s">
+      <c r="A806" s="15" t="s">
         <v>805</v>
       </c>
       <c r="B806">
@@ -9546,7 +9550,7 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="13" t="s">
+      <c r="A807" s="15" t="s">
         <v>806</v>
       </c>
       <c r="B807">
@@ -9554,7 +9558,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="13" t="s">
+      <c r="A808" s="15" t="s">
         <v>807</v>
       </c>
       <c r="B808">
@@ -9562,7 +9566,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="13" t="s">
+      <c r="A809" s="15" t="s">
         <v>808</v>
       </c>
       <c r="B809">
@@ -9570,7 +9574,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="13" t="s">
+      <c r="A810" s="15" t="s">
         <v>809</v>
       </c>
       <c r="B810">
@@ -9578,7 +9582,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="13" t="s">
+      <c r="A811" s="15" t="s">
         <v>810</v>
       </c>
       <c r="B811">
@@ -9586,7 +9590,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="13" t="s">
+      <c r="A812" s="15" t="s">
         <v>811</v>
       </c>
       <c r="B812">
@@ -9594,7 +9598,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="13" t="s">
+      <c r="A813" s="15" t="s">
         <v>812</v>
       </c>
       <c r="B813">
@@ -9602,7 +9606,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="13" t="s">
+      <c r="A814" s="15" t="s">
         <v>813</v>
       </c>
       <c r="B814">
@@ -9610,7 +9614,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="13" t="s">
+      <c r="A815" s="15" t="s">
         <v>814</v>
       </c>
       <c r="B815">
@@ -9618,7 +9622,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="13" t="s">
+      <c r="A816" s="15" t="s">
         <v>815</v>
       </c>
       <c r="B816">
@@ -9626,7 +9630,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="13" t="s">
+      <c r="A817" s="15" t="s">
         <v>816</v>
       </c>
       <c r="B817">
@@ -9634,7 +9638,7 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="13" t="s">
+      <c r="A818" s="15" t="s">
         <v>817</v>
       </c>
       <c r="B818">
@@ -9642,7 +9646,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="13" t="s">
+      <c r="A819" s="15" t="s">
         <v>818</v>
       </c>
       <c r="B819">
@@ -9650,7 +9654,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="13" t="s">
+      <c r="A820" s="15" t="s">
         <v>819</v>
       </c>
       <c r="B820">
@@ -9658,7 +9662,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="13" t="s">
+      <c r="A821" s="15" t="s">
         <v>820</v>
       </c>
       <c r="B821">
@@ -9666,7 +9670,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="13" t="s">
+      <c r="A822" s="15" t="s">
         <v>821</v>
       </c>
       <c r="B822">
@@ -9674,7 +9678,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="13" t="s">
+      <c r="A823" s="15" t="s">
         <v>822</v>
       </c>
       <c r="B823">
@@ -9682,7 +9686,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="13" t="s">
+      <c r="A824" s="15" t="s">
         <v>823</v>
       </c>
       <c r="B824">
@@ -9690,7 +9694,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="13" t="s">
+      <c r="A825" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B825">
@@ -9698,7 +9702,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="13" t="s">
+      <c r="A826" s="15" t="s">
         <v>825</v>
       </c>
       <c r="B826">
@@ -9706,7 +9710,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="13" t="s">
+      <c r="A827" s="15" t="s">
         <v>826</v>
       </c>
       <c r="B827">
@@ -9714,7 +9718,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="13" t="s">
+      <c r="A828" s="15" t="s">
         <v>827</v>
       </c>
       <c r="B828">
@@ -9722,7 +9726,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="13" t="s">
+      <c r="A829" s="15" t="s">
         <v>828</v>
       </c>
       <c r="B829">
@@ -9730,7 +9734,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="13" t="s">
+      <c r="A830" s="15" t="s">
         <v>829</v>
       </c>
       <c r="B830">
@@ -9738,7 +9742,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="13" t="s">
+      <c r="A831" s="15" t="s">
         <v>830</v>
       </c>
       <c r="B831">
@@ -9746,7 +9750,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="13" t="s">
+      <c r="A832" s="15" t="s">
         <v>831</v>
       </c>
       <c r="B832">
@@ -9754,7 +9758,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="13" t="s">
+      <c r="A833" s="15" t="s">
         <v>832</v>
       </c>
       <c r="B833">
@@ -9762,7 +9766,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="13" t="s">
+      <c r="A834" s="15" t="s">
         <v>833</v>
       </c>
       <c r="B834">
@@ -9770,7 +9774,7 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="13" t="s">
+      <c r="A835" s="15" t="s">
         <v>834</v>
       </c>
       <c r="B835">
@@ -9778,7 +9782,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="13" t="s">
+      <c r="A836" s="15" t="s">
         <v>835</v>
       </c>
       <c r="B836">
@@ -9786,7 +9790,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="13" t="s">
+      <c r="A837" s="15" t="s">
         <v>836</v>
       </c>
       <c r="B837">
@@ -9794,7 +9798,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="13" t="s">
+      <c r="A838" s="15" t="s">
         <v>837</v>
       </c>
       <c r="B838">
@@ -9802,7 +9806,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="13" t="s">
+      <c r="A839" s="15" t="s">
         <v>838</v>
       </c>
       <c r="B839">
@@ -9810,7 +9814,7 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="13" t="s">
+      <c r="A840" s="15" t="s">
         <v>839</v>
       </c>
       <c r="B840">
@@ -9818,7 +9822,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="13" t="s">
+      <c r="A841" s="15" t="s">
         <v>840</v>
       </c>
       <c r="B841">
@@ -9826,7 +9830,7 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="13" t="s">
+      <c r="A842" s="15" t="s">
         <v>841</v>
       </c>
       <c r="B842">
@@ -9834,7 +9838,7 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="13" t="s">
+      <c r="A843" s="15" t="s">
         <v>842</v>
       </c>
       <c r="B843">
@@ -9842,7 +9846,7 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="13" t="s">
+      <c r="A844" s="15" t="s">
         <v>843</v>
       </c>
       <c r="B844">
@@ -9850,7 +9854,7 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="13" t="s">
+      <c r="A845" s="15" t="s">
         <v>844</v>
       </c>
       <c r="B845">
@@ -9858,7 +9862,7 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="13" t="s">
+      <c r="A846" s="15" t="s">
         <v>845</v>
       </c>
       <c r="B846">
@@ -9866,7 +9870,7 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="13" t="s">
+      <c r="A847" s="15" t="s">
         <v>846</v>
       </c>
       <c r="B847">
@@ -9874,7 +9878,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="13" t="s">
+      <c r="A848" s="15" t="s">
         <v>847</v>
       </c>
       <c r="B848">
@@ -9882,7 +9886,7 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="13" t="s">
+      <c r="A849" s="15" t="s">
         <v>848</v>
       </c>
       <c r="B849">
@@ -9890,7 +9894,7 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="13" t="s">
+      <c r="A850" s="15" t="s">
         <v>849</v>
       </c>
       <c r="B850">
@@ -9898,7 +9902,7 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="13" t="s">
+      <c r="A851" s="15" t="s">
         <v>850</v>
       </c>
       <c r="B851">
@@ -9906,7 +9910,7 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" s="13" t="s">
+      <c r="A852" s="15" t="s">
         <v>851</v>
       </c>
       <c r="B852">
@@ -9914,7 +9918,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="13" t="s">
+      <c r="A853" s="15" t="s">
         <v>852</v>
       </c>
       <c r="B853">
@@ -9922,7 +9926,7 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="13" t="s">
+      <c r="A854" s="15" t="s">
         <v>853</v>
       </c>
       <c r="B854">
@@ -9930,7 +9934,7 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="13" t="s">
+      <c r="A855" s="15" t="s">
         <v>854</v>
       </c>
       <c r="B855">
@@ -9938,7 +9942,7 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="13" t="s">
+      <c r="A856" s="15" t="s">
         <v>855</v>
       </c>
       <c r="B856">
@@ -9946,7 +9950,7 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="13" t="s">
+      <c r="A857" s="15" t="s">
         <v>856</v>
       </c>
       <c r="B857">
@@ -9954,7 +9958,7 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="13" t="s">
+      <c r="A858" s="15" t="s">
         <v>857</v>
       </c>
       <c r="B858">
@@ -9962,7 +9966,7 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" s="13" t="s">
+      <c r="A859" s="15" t="s">
         <v>858</v>
       </c>
       <c r="B859">
@@ -9970,7 +9974,7 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="13" t="s">
+      <c r="A860" s="15" t="s">
         <v>859</v>
       </c>
       <c r="B860">
@@ -9978,7 +9982,7 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="13" t="s">
+      <c r="A861" s="15" t="s">
         <v>860</v>
       </c>
       <c r="B861">
@@ -9986,7 +9990,7 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="13" t="s">
+      <c r="A862" s="15" t="s">
         <v>861</v>
       </c>
       <c r="B862">
@@ -9994,7 +9998,7 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="13" t="s">
+      <c r="A863" s="15" t="s">
         <v>862</v>
       </c>
       <c r="B863">
@@ -10002,7 +10006,7 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="13" t="s">
+      <c r="A864" s="15" t="s">
         <v>863</v>
       </c>
       <c r="B864">
@@ -10010,7 +10014,7 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="13" t="s">
+      <c r="A865" s="15" t="s">
         <v>864</v>
       </c>
       <c r="B865">
@@ -10018,7 +10022,7 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="13" t="s">
+      <c r="A866" s="15" t="s">
         <v>865</v>
       </c>
       <c r="B866">
@@ -10026,7 +10030,7 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" s="13" t="s">
+      <c r="A867" s="15" t="s">
         <v>866</v>
       </c>
       <c r="B867">
@@ -10034,7 +10038,7 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" s="13" t="s">
+      <c r="A868" s="15" t="s">
         <v>867</v>
       </c>
       <c r="B868">
@@ -10042,7 +10046,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="13" t="s">
+      <c r="A869" s="15" t="s">
         <v>868</v>
       </c>
       <c r="B869">
@@ -10050,7 +10054,7 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="13" t="s">
+      <c r="A870" s="15" t="s">
         <v>869</v>
       </c>
       <c r="B870">
@@ -10058,7 +10062,7 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" s="13" t="s">
+      <c r="A871" s="15" t="s">
         <v>870</v>
       </c>
       <c r="B871">
@@ -10066,7 +10070,7 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="13" t="s">
+      <c r="A872" s="15" t="s">
         <v>871</v>
       </c>
       <c r="B872">
@@ -10074,7 +10078,7 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" s="13" t="s">
+      <c r="A873" s="15" t="s">
         <v>872</v>
       </c>
       <c r="B873">
@@ -10082,7 +10086,7 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="13" t="s">
+      <c r="A874" s="15" t="s">
         <v>873</v>
       </c>
       <c r="B874">
@@ -10090,7 +10094,7 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" s="13" t="s">
+      <c r="A875" s="15" t="s">
         <v>874</v>
       </c>
       <c r="B875">
@@ -10098,7 +10102,7 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="13" t="s">
+      <c r="A876" s="15" t="s">
         <v>875</v>
       </c>
       <c r="B876">
@@ -10106,7 +10110,7 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="13" t="s">
+      <c r="A877" s="15" t="s">
         <v>876</v>
       </c>
       <c r="B877">
@@ -10114,7 +10118,7 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="13" t="s">
+      <c r="A878" s="15" t="s">
         <v>877</v>
       </c>
       <c r="B878">
@@ -10122,7 +10126,7 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="13" t="s">
+      <c r="A879" s="15" t="s">
         <v>878</v>
       </c>
       <c r="B879">
@@ -10130,7 +10134,7 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" s="13" t="s">
+      <c r="A880" s="15" t="s">
         <v>879</v>
       </c>
       <c r="B880">
@@ -10138,7 +10142,7 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" s="13" t="s">
+      <c r="A881" s="15" t="s">
         <v>880</v>
       </c>
       <c r="B881">
@@ -10146,7 +10150,7 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" s="13" t="s">
+      <c r="A882" s="15" t="s">
         <v>881</v>
       </c>
       <c r="B882">
@@ -10154,7 +10158,7 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="13" t="s">
+      <c r="A883" s="15" t="s">
         <v>882</v>
       </c>
       <c r="B883">
@@ -10162,7 +10166,7 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="13" t="s">
+      <c r="A884" s="15" t="s">
         <v>883</v>
       </c>
       <c r="B884">
@@ -10170,7 +10174,7 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" s="13" t="s">
+      <c r="A885" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B885">
@@ -10178,7 +10182,7 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" s="13" t="s">
+      <c r="A886" s="15" t="s">
         <v>885</v>
       </c>
       <c r="B886">
@@ -10186,7 +10190,7 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="13" t="s">
+      <c r="A887" s="15" t="s">
         <v>886</v>
       </c>
       <c r="B887">
@@ -10194,7 +10198,7 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="13" t="s">
+      <c r="A888" s="15" t="s">
         <v>887</v>
       </c>
       <c r="B888">
@@ -10202,7 +10206,7 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" s="13" t="s">
+      <c r="A889" s="15" t="s">
         <v>888</v>
       </c>
       <c r="B889">
@@ -10210,7 +10214,7 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" s="13" t="s">
+      <c r="A890" s="15" t="s">
         <v>889</v>
       </c>
       <c r="B890">
@@ -10218,7 +10222,7 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" s="13" t="s">
+      <c r="A891" s="15" t="s">
         <v>890</v>
       </c>
       <c r="B891">
@@ -10226,7 +10230,7 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" s="13" t="s">
+      <c r="A892" s="15" t="s">
         <v>891</v>
       </c>
       <c r="B892">
@@ -10234,7 +10238,7 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" s="13" t="s">
+      <c r="A893" s="15" t="s">
         <v>892</v>
       </c>
       <c r="B893">
@@ -10242,7 +10246,7 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" s="13" t="s">
+      <c r="A894" s="15" t="s">
         <v>893</v>
       </c>
       <c r="B894">
@@ -10250,7 +10254,7 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="13" t="s">
+      <c r="A895" s="15" t="s">
         <v>894</v>
       </c>
       <c r="B895">
@@ -10258,7 +10262,7 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" s="13" t="s">
+      <c r="A896" s="15" t="s">
         <v>895</v>
       </c>
       <c r="B896">
@@ -10266,7 +10270,7 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="13" t="s">
+      <c r="A897" s="15" t="s">
         <v>896</v>
       </c>
       <c r="B897">
@@ -10274,7 +10278,7 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" s="13" t="s">
+      <c r="A898" s="15" t="s">
         <v>897</v>
       </c>
       <c r="B898">
@@ -10282,7 +10286,7 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" s="13" t="s">
+      <c r="A899" s="15" t="s">
         <v>898</v>
       </c>
       <c r="B899">
@@ -10290,7 +10294,7 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" s="13" t="s">
+      <c r="A900" s="15" t="s">
         <v>899</v>
       </c>
       <c r="B900">
@@ -10298,7 +10302,7 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="13" t="s">
+      <c r="A901" s="15" t="s">
         <v>900</v>
       </c>
       <c r="B901">
@@ -10306,7 +10310,7 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="13" t="s">
+      <c r="A902" s="15" t="s">
         <v>901</v>
       </c>
       <c r="B902">
@@ -10314,7 +10318,7 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="13" t="s">
+      <c r="A903" s="15" t="s">
         <v>902</v>
       </c>
       <c r="B903">
@@ -10322,7 +10326,7 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="13" t="s">
+      <c r="A904" s="15" t="s">
         <v>903</v>
       </c>
       <c r="B904">
@@ -10330,7 +10334,7 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="13" t="s">
+      <c r="A905" s="15" t="s">
         <v>904</v>
       </c>
       <c r="B905">
@@ -10338,7 +10342,7 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="13" t="s">
+      <c r="A906" s="15" t="s">
         <v>905</v>
       </c>
       <c r="B906">
@@ -10346,7 +10350,7 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="13" t="s">
+      <c r="A907" s="15" t="s">
         <v>906</v>
       </c>
       <c r="B907">
@@ -10354,7 +10358,7 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" s="13" t="s">
+      <c r="A908" s="15" t="s">
         <v>907</v>
       </c>
       <c r="B908">
@@ -10362,7 +10366,7 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" s="13" t="s">
+      <c r="A909" s="15" t="s">
         <v>908</v>
       </c>
       <c r="B909">
@@ -10370,7 +10374,7 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="13" t="s">
+      <c r="A910" s="15" t="s">
         <v>909</v>
       </c>
       <c r="B910">
@@ -10378,7 +10382,7 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" s="13" t="s">
+      <c r="A911" s="15" t="s">
         <v>910</v>
       </c>
       <c r="B911">
@@ -10386,7 +10390,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="13" t="s">
+      <c r="A912" s="15" t="s">
         <v>911</v>
       </c>
       <c r="B912">
@@ -10394,7 +10398,7 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" s="13" t="s">
+      <c r="A913" s="15" t="s">
         <v>912</v>
       </c>
       <c r="B913">
@@ -10402,7 +10406,7 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" s="13" t="s">
+      <c r="A914" s="15" t="s">
         <v>913</v>
       </c>
       <c r="B914">
@@ -10410,7 +10414,7 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" s="13" t="s">
+      <c r="A915" s="15" t="s">
         <v>914</v>
       </c>
       <c r="B915">
@@ -10418,7 +10422,7 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" s="13" t="s">
+      <c r="A916" s="15" t="s">
         <v>915</v>
       </c>
       <c r="B916">
@@ -10426,7 +10430,7 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="13" t="s">
+      <c r="A917" s="15" t="s">
         <v>916</v>
       </c>
       <c r="B917">
@@ -10434,7 +10438,7 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" s="13" t="s">
+      <c r="A918" s="15" t="s">
         <v>917</v>
       </c>
       <c r="B918">
@@ -10442,7 +10446,7 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" s="13" t="s">
+      <c r="A919" s="15" t="s">
         <v>918</v>
       </c>
       <c r="B919">
@@ -10450,7 +10454,7 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" s="13" t="s">
+      <c r="A920" s="15" t="s">
         <v>919</v>
       </c>
       <c r="B920">
@@ -10458,7 +10462,7 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" s="13" t="s">
+      <c r="A921" s="15" t="s">
         <v>920</v>
       </c>
       <c r="B921">
@@ -10466,7 +10470,7 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="13" t="s">
+      <c r="A922" s="15" t="s">
         <v>921</v>
       </c>
       <c r="B922">
@@ -10474,7 +10478,7 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" s="13" t="s">
+      <c r="A923" s="15" t="s">
         <v>922</v>
       </c>
       <c r="B923">
@@ -10482,7 +10486,7 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" s="13" t="s">
+      <c r="A924" s="15" t="s">
         <v>923</v>
       </c>
       <c r="B924">
@@ -10490,7 +10494,7 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" s="13" t="s">
+      <c r="A925" s="15" t="s">
         <v>924</v>
       </c>
       <c r="B925">
@@ -10498,7 +10502,7 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" s="13" t="s">
+      <c r="A926" s="15" t="s">
         <v>925</v>
       </c>
       <c r="B926">
@@ -10506,7 +10510,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="13" t="s">
+      <c r="A927" s="15" t="s">
         <v>926</v>
       </c>
       <c r="B927">
@@ -10514,7 +10518,7 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" s="13" t="s">
+      <c r="A928" s="15" t="s">
         <v>927</v>
       </c>
       <c r="B928">
@@ -10522,7 +10526,7 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" s="13" t="s">
+      <c r="A929" s="15" t="s">
         <v>928</v>
       </c>
       <c r="B929">
@@ -10530,7 +10534,7 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" s="13" t="s">
+      <c r="A930" s="15" t="s">
         <v>929</v>
       </c>
       <c r="B930">
@@ -10538,7 +10542,7 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" s="13" t="s">
+      <c r="A931" s="15" t="s">
         <v>930</v>
       </c>
       <c r="B931">
@@ -10546,7 +10550,7 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="13" t="s">
+      <c r="A932" s="15" t="s">
         <v>931</v>
       </c>
       <c r="B932">
@@ -10554,7 +10558,7 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" s="13" t="s">
+      <c r="A933" s="15" t="s">
         <v>932</v>
       </c>
       <c r="B933">
@@ -10562,7 +10566,7 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" s="13" t="s">
+      <c r="A934" s="15" t="s">
         <v>933</v>
       </c>
       <c r="B934">
@@ -10570,7 +10574,7 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" s="13" t="s">
+      <c r="A935" s="15" t="s">
         <v>934</v>
       </c>
       <c r="B935">
@@ -10578,7 +10582,7 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" s="13" t="s">
+      <c r="A936" s="15" t="s">
         <v>935</v>
       </c>
       <c r="B936">
@@ -10586,7 +10590,7 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="13" t="s">
+      <c r="A937" s="15" t="s">
         <v>936</v>
       </c>
       <c r="B937">
@@ -10594,7 +10598,7 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" s="13" t="s">
+      <c r="A938" s="15" t="s">
         <v>937</v>
       </c>
       <c r="B938">
@@ -10602,7 +10606,7 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" s="13" t="s">
+      <c r="A939" s="15" t="s">
         <v>938</v>
       </c>
       <c r="B939">
@@ -10610,7 +10614,7 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" s="13" t="s">
+      <c r="A940" s="15" t="s">
         <v>939</v>
       </c>
       <c r="B940">
@@ -10618,7 +10622,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="13" t="s">
+      <c r="A941" s="15" t="s">
         <v>940</v>
       </c>
       <c r="B941">
@@ -10626,7 +10630,7 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" s="13" t="s">
+      <c r="A942" s="15" t="s">
         <v>941</v>
       </c>
       <c r="B942">
@@ -10634,7 +10638,7 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" s="13" t="s">
+      <c r="A943" s="15" t="s">
         <v>942</v>
       </c>
       <c r="B943">
@@ -10642,7 +10646,7 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" s="13" t="s">
+      <c r="A944" s="15" t="s">
         <v>943</v>
       </c>
       <c r="B944">
@@ -10650,7 +10654,7 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" s="13" t="s">
+      <c r="A945" s="15" t="s">
         <v>944</v>
       </c>
       <c r="B945">
@@ -10658,7 +10662,7 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" s="13" t="s">
+      <c r="A946" s="15" t="s">
         <v>945</v>
       </c>
       <c r="B946">
@@ -10666,7 +10670,7 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" s="13" t="s">
+      <c r="A947" s="15" t="s">
         <v>946</v>
       </c>
       <c r="B947">
@@ -10674,7 +10678,7 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" s="13" t="s">
+      <c r="A948" s="15" t="s">
         <v>947</v>
       </c>
       <c r="B948">
@@ -10682,7 +10686,7 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" s="13" t="s">
+      <c r="A949" s="15" t="s">
         <v>948</v>
       </c>
       <c r="B949">
@@ -10690,7 +10694,7 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" s="13" t="s">
+      <c r="A950" s="15" t="s">
         <v>949</v>
       </c>
       <c r="B950">
@@ -10698,7 +10702,7 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" s="13" t="s">
+      <c r="A951" s="15" t="s">
         <v>950</v>
       </c>
       <c r="B951">
@@ -10706,7 +10710,7 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" s="13" t="s">
+      <c r="A952" s="15" t="s">
         <v>951</v>
       </c>
       <c r="B952">
@@ -10714,7 +10718,7 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" s="13" t="s">
+      <c r="A953" s="15" t="s">
         <v>952</v>
       </c>
       <c r="B953">
@@ -10722,7 +10726,7 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" s="13" t="s">
+      <c r="A954" s="15" t="s">
         <v>953</v>
       </c>
       <c r="B954">
@@ -10730,7 +10734,7 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" s="13" t="s">
+      <c r="A955" s="15" t="s">
         <v>954</v>
       </c>
       <c r="B955">
@@ -10738,7 +10742,7 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" s="13" t="s">
+      <c r="A956" s="15" t="s">
         <v>955</v>
       </c>
       <c r="B956">
@@ -10746,7 +10750,7 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" s="13" t="s">
+      <c r="A957" s="15" t="s">
         <v>956</v>
       </c>
       <c r="B957">
@@ -10754,7 +10758,7 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" s="13" t="s">
+      <c r="A958" s="15" t="s">
         <v>957</v>
       </c>
       <c r="B958">
@@ -10762,7 +10766,7 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" s="13" t="s">
+      <c r="A959" s="15" t="s">
         <v>958</v>
       </c>
       <c r="B959">
@@ -10770,7 +10774,7 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" s="13" t="s">
+      <c r="A960" s="15" t="s">
         <v>959</v>
       </c>
       <c r="B960">
@@ -10778,7 +10782,7 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="13" t="s">
+      <c r="A961" s="15" t="s">
         <v>960</v>
       </c>
       <c r="B961">
@@ -10786,7 +10790,7 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" s="13" t="s">
+      <c r="A962" s="15" t="s">
         <v>961</v>
       </c>
       <c r="B962">
@@ -10794,7 +10798,7 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="13" t="s">
+      <c r="A963" s="15" t="s">
         <v>962</v>
       </c>
       <c r="B963">
@@ -10802,7 +10806,7 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" s="13" t="s">
+      <c r="A964" s="15" t="s">
         <v>963</v>
       </c>
       <c r="B964">
@@ -10810,7 +10814,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="13" t="s">
+      <c r="A965" s="15" t="s">
         <v>964</v>
       </c>
       <c r="B965">
@@ -10818,7 +10822,7 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" s="13" t="s">
+      <c r="A966" s="15" t="s">
         <v>965</v>
       </c>
       <c r="B966">
@@ -10826,7 +10830,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" s="13" t="s">
+      <c r="A967" s="15" t="s">
         <v>966</v>
       </c>
       <c r="B967">
@@ -10834,7 +10838,7 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" s="13" t="s">
+      <c r="A968" s="15" t="s">
         <v>967</v>
       </c>
       <c r="B968">
@@ -10842,7 +10846,7 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" s="13" t="s">
+      <c r="A969" s="15" t="s">
         <v>968</v>
       </c>
       <c r="B969">
@@ -10850,7 +10854,7 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="13" t="s">
+      <c r="A970" s="15" t="s">
         <v>969</v>
       </c>
       <c r="B970">
@@ -10858,7 +10862,7 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" s="13" t="s">
+      <c r="A971" s="15" t="s">
         <v>970</v>
       </c>
       <c r="B971">
@@ -10866,7 +10870,7 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" s="13" t="s">
+      <c r="A972" s="15" t="s">
         <v>971</v>
       </c>
       <c r="B972">
@@ -10874,7 +10878,7 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" s="13" t="s">
+      <c r="A973" s="15" t="s">
         <v>972</v>
       </c>
       <c r="B973">
@@ -10882,7 +10886,7 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="13" t="s">
+      <c r="A974" s="15" t="s">
         <v>973</v>
       </c>
       <c r="B974">
@@ -10890,7 +10894,7 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" s="13" t="s">
+      <c r="A975" s="15" t="s">
         <v>974</v>
       </c>
       <c r="B975">
@@ -10898,7 +10902,7 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" s="13" t="s">
+      <c r="A976" s="15" t="s">
         <v>975</v>
       </c>
       <c r="B976">
@@ -10906,7 +10910,7 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" s="13" t="s">
+      <c r="A977" s="15" t="s">
         <v>976</v>
       </c>
       <c r="B977">
@@ -10914,7 +10918,7 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" s="13" t="s">
+      <c r="A978" s="15" t="s">
         <v>977</v>
       </c>
       <c r="B978">
@@ -10922,7 +10926,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="13" t="s">
+      <c r="A979" s="15" t="s">
         <v>978</v>
       </c>
       <c r="B979">
@@ -10930,7 +10934,7 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="13" t="s">
+      <c r="A980" s="15" t="s">
         <v>979</v>
       </c>
       <c r="B980">
@@ -10938,7 +10942,7 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" s="13" t="s">
+      <c r="A981" s="15" t="s">
         <v>980</v>
       </c>
       <c r="B981">
@@ -10946,7 +10950,7 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" s="13" t="s">
+      <c r="A982" s="15" t="s">
         <v>981</v>
       </c>
       <c r="B982">
@@ -10954,7 +10958,7 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" s="13" t="s">
+      <c r="A983" s="15" t="s">
         <v>982</v>
       </c>
       <c r="B983">
@@ -10962,7 +10966,7 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" s="13" t="s">
+      <c r="A984" s="15" t="s">
         <v>983</v>
       </c>
       <c r="B984">
@@ -10970,7 +10974,7 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" s="13" t="s">
+      <c r="A985" s="15" t="s">
         <v>984</v>
       </c>
       <c r="B985">
@@ -10978,7 +10982,7 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" s="13" t="s">
+      <c r="A986" s="15" t="s">
         <v>985</v>
       </c>
       <c r="B986">
@@ -10986,7 +10990,7 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" s="13" t="s">
+      <c r="A987" s="15" t="s">
         <v>986</v>
       </c>
       <c r="B987">
@@ -10994,7 +10998,7 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" s="13" t="s">
+      <c r="A988" s="15" t="s">
         <v>987</v>
       </c>
       <c r="B988">
@@ -11002,7 +11006,7 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" s="13" t="s">
+      <c r="A989" s="15" t="s">
         <v>988</v>
       </c>
       <c r="B989">
@@ -11010,7 +11014,7 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" s="13" t="s">
+      <c r="A990" s="15" t="s">
         <v>989</v>
       </c>
       <c r="B990">
@@ -11018,7 +11022,7 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" s="13" t="s">
+      <c r="A991" s="15" t="s">
         <v>990</v>
       </c>
       <c r="B991">
@@ -11026,7 +11030,7 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" s="13" t="s">
+      <c r="A992" s="15" t="s">
         <v>991</v>
       </c>
       <c r="B992">
@@ -11034,7 +11038,7 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" s="13" t="s">
+      <c r="A993" s="15" t="s">
         <v>992</v>
       </c>
       <c r="B993">
@@ -11042,7 +11046,7 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" s="13" t="s">
+      <c r="A994" s="15" t="s">
         <v>993</v>
       </c>
       <c r="B994">
@@ -11050,7 +11054,7 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" s="13" t="s">
+      <c r="A995" s="15" t="s">
         <v>994</v>
       </c>
       <c r="B995">
@@ -11058,7 +11062,7 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" s="13" t="s">
+      <c r="A996" s="15" t="s">
         <v>995</v>
       </c>
       <c r="B996">
@@ -11066,7 +11070,7 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="13" t="s">
+      <c r="A997" s="15" t="s">
         <v>996</v>
       </c>
       <c r="B997">
@@ -11074,7 +11078,7 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" s="13" t="s">
+      <c r="A998" s="15" t="s">
         <v>997</v>
       </c>
       <c r="B998">
@@ -11082,7 +11086,7 @@
       </c>
     </row>
     <row r="999">
-      <c r="A999" s="13" t="s">
+      <c r="A999" s="15" t="s">
         <v>998</v>
       </c>
       <c r="B999">
@@ -11090,7 +11094,7 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" s="13" t="s">
+      <c r="A1000" s="15" t="s">
         <v>999</v>
       </c>
       <c r="B1000">
@@ -11098,7 +11102,7 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" s="13" t="s">
+      <c r="A1001" s="15" t="s">
         <v>1000</v>
       </c>
       <c r="B1001">
